--- a/SubRES_TMPL/SubRES_Storage.xlsx
+++ b/SubRES_TMPL/SubRES_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A204078F-B672-416C-B0D0-8B958C6AEEA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAE03F1-8C5E-4A34-A73A-8222322821D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="1410" windowWidth="20040" windowHeight="14190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="4680" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -3182,7 +3182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="280">
   <si>
     <t>TechName</t>
   </si>
@@ -4019,6 +4019,9 @@
   </si>
   <si>
     <t>moved</t>
+  </si>
+  <si>
+    <t>daynite</t>
   </si>
 </sst>
 </file>
@@ -5186,8 +5189,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="Q27" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AH45" sqref="AH45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7289,7 +7292,7 @@
       </c>
       <c r="AG45" s="127"/>
       <c r="AH45" s="125" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="AI45" s="127"/>
       <c r="AJ45" s="127" t="s">
@@ -7537,7 +7540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_Storage.xlsx
+++ b/SubRES_TMPL/SubRES_Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAE03F1-8C5E-4A34-A73A-8222322821D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C732AED-AEB7-4D00-B3ED-032A9680E1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="4680" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -3850,9 +3850,6 @@
     <t>Gaseous Hydrogen</t>
   </si>
   <si>
-    <t>Liquid Hydrogen</t>
-  </si>
-  <si>
     <t>Electricity Plants Natural Gas</t>
   </si>
   <si>
@@ -4022,6 +4019,9 @@
   </si>
   <si>
     <t>daynite</t>
+  </si>
+  <si>
+    <t>Liquid Hydrogen fuel</t>
   </si>
 </sst>
 </file>
@@ -5189,7 +5189,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q27" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="Q27" zoomScale="90" workbookViewId="0">
       <selection activeCell="AH45" sqref="AH45"/>
     </sheetView>
   </sheetViews>
@@ -5892,7 +5892,7 @@
         <v>90</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ15" s="61"/>
       <c r="AK15" s="129"/>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD33" s="59" t="s">
         <v>85</v>
@@ -7049,7 +7049,7 @@
         <v>42</v>
       </c>
       <c r="AH33" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AI33" s="59" t="s">
         <v>92</v>
@@ -7116,7 +7116,7 @@
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C40" s="88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -7184,10 +7184,10 @@
         <v>114</v>
       </c>
       <c r="AD42" s="125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AE42" s="126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF42" s="125" t="s">
         <v>41</v>
@@ -7216,10 +7216,10 @@
         <v>114</v>
       </c>
       <c r="AD43" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE43" s="126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF43" s="125" t="s">
         <v>41</v>
@@ -7285,14 +7285,14 @@
         <v>40</v>
       </c>
       <c r="AE45" s="127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF45" s="125" t="s">
         <v>41</v>
       </c>
       <c r="AG45" s="127"/>
       <c r="AH45" s="125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AI45" s="127"/>
       <c r="AJ45" s="127" t="s">
@@ -7319,7 +7319,7 @@
         <v>92</v>
       </c>
       <c r="AE46" s="127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF46" s="125" t="s">
         <v>41</v>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="AI46" s="127"/>
       <c r="AJ46" s="127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="2:36" x14ac:dyDescent="0.2">
@@ -7353,7 +7353,7 @@
         <v>145</v>
       </c>
       <c r="AE47" s="127" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF47" s="125" t="s">
         <v>41</v>
@@ -7383,7 +7383,7 @@
         <v>65</v>
       </c>
       <c r="AE48" s="127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF48" s="125" t="s">
         <v>41</v>
@@ -7413,7 +7413,7 @@
         <v>131</v>
       </c>
       <c r="AE49" s="127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF49" s="125" t="s">
         <v>41</v>
@@ -7540,8 +7540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7700,7 +7700,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M9" s="68" t="s">
         <v>16</v>
@@ -7909,10 +7909,10 @@
         <v>99</v>
       </c>
       <c r="Y12" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA12" s="59" t="s">
         <v>41</v>
@@ -7921,7 +7921,7 @@
         <v>58</v>
       </c>
       <c r="AC12" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD12" s="59" t="s">
         <v>120</v>
@@ -7995,7 +7995,7 @@
         <v>42</v>
       </c>
       <c r="AC13" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD13" s="59" t="s">
         <v>102</v>
@@ -8100,7 +8100,7 @@
         <v>58</v>
       </c>
       <c r="AC15" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD15" s="59" t="s">
         <v>102</v>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="V16" s="79"/>
       <c r="X16" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y16" s="59" t="s">
         <v>84</v>
@@ -8171,7 +8171,7 @@
         <v>42</v>
       </c>
       <c r="AC16" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD16" s="14" t="s">
         <v>102</v>
@@ -8230,10 +8230,10 @@
         <v>UPSSTCOA1</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="G18" s="75" t="s">
         <v>71</v>
@@ -8269,13 +8269,13 @@
       </c>
       <c r="V18" s="79"/>
       <c r="X18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z18" t="s">
         <v>268</v>
-      </c>
-      <c r="Y18" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>269</v>
       </c>
       <c r="AA18" s="59" t="s">
         <v>41</v>
@@ -8287,13 +8287,13 @@
         <v>142</v>
       </c>
       <c r="AD18" s="59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AE18" s="59"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E19" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="75"/>
       <c r="H19" s="79"/>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="AB27" s="127"/>
       <c r="AC27" s="127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD27" s="127"/>
       <c r="AE27" s="127"/>
@@ -8427,14 +8427,14 @@
         <v>91</v>
       </c>
       <c r="Z28" s="127" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="AA28" s="125" t="s">
         <v>41</v>
       </c>
       <c r="AB28" s="127"/>
       <c r="AC28" s="127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD28" s="127"/>
       <c r="AE28" s="127"/>
@@ -8447,14 +8447,14 @@
         <v>120</v>
       </c>
       <c r="Z29" s="127" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA29" s="125" t="s">
         <v>41</v>
       </c>
       <c r="AB29" s="127"/>
       <c r="AC29" s="127" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD29" s="127"/>
       <c r="AE29" s="127" t="s">
@@ -8586,7 +8586,7 @@
         <v>108</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H8" s="68">
         <v>2020</v>
@@ -8601,7 +8601,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>71</v>
@@ -9074,7 +9074,7 @@
         <v>204</v>
       </c>
       <c r="Z15" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA15" s="59" t="s">
         <v>41</v>
@@ -9227,10 +9227,10 @@
         <v>78</v>
       </c>
       <c r="Y18" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z18" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA18" s="61" t="s">
         <v>41</v>
@@ -9292,10 +9292,10 @@
       <c r="D20" s="21"/>
       <c r="E20" s="114"/>
       <c r="F20" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G20" s="131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H20" s="79"/>
       <c r="I20" s="79">
@@ -9333,10 +9333,10 @@
       <c r="D21" s="21"/>
       <c r="E21" s="114"/>
       <c r="F21" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G21" s="131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79">
@@ -9696,14 +9696,14 @@
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C31" s="88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="43"/>
       <c r="M31" s="43"/>
       <c r="N31" s="28"/>
       <c r="O31" s="88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
@@ -9828,7 +9828,7 @@
         <v>196</v>
       </c>
       <c r="Z33" s="127" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA33" s="127" t="s">
         <v>41</v>
@@ -9881,7 +9881,7 @@
         <v>202</v>
       </c>
       <c r="Z34" s="127" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA34" s="127" t="s">
         <v>41</v>
@@ -9938,7 +9938,7 @@
         <v>210</v>
       </c>
       <c r="Z35" s="127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA35" s="127" t="s">
         <v>41</v>
@@ -9980,10 +9980,10 @@
         <v>206</v>
       </c>
       <c r="Y36" s="127" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z36" s="127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA36" s="127" t="s">
         <v>41</v>
@@ -10025,10 +10025,10 @@
         <v>206</v>
       </c>
       <c r="Y37" s="127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z37" s="127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA37" s="127" t="s">
         <v>41</v>
@@ -10430,7 +10430,7 @@
         <v>108</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I8" s="68">
         <v>2020</v>
@@ -10448,7 +10448,7 @@
         <v>96</v>
       </c>
       <c r="N8" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O8" s="37" t="s">
         <v>71</v>
@@ -10750,7 +10750,7 @@
         <v>99</v>
       </c>
       <c r="AB12" s="54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AC12" s="54" t="s">
         <v>184</v>
@@ -10816,7 +10816,7 @@
         <v>99</v>
       </c>
       <c r="AB13" s="54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC13" s="54" t="s">
         <v>185</v>
@@ -10888,10 +10888,10 @@
         <v>192</v>
       </c>
       <c r="AB14" s="54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC14" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AD14" s="61" t="s">
         <v>41</v>
@@ -11258,7 +11258,7 @@
         <v>99</v>
       </c>
       <c r="AB21" s="105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AC21" s="54" t="s">
         <v>191</v>
@@ -11394,7 +11394,7 @@
         <v>175</v>
       </c>
       <c r="AC23" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD23" s="61" t="s">
         <v>68</v>
@@ -11471,7 +11471,7 @@
         <v>176</v>
       </c>
       <c r="AC24" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AD24" s="61" t="s">
         <v>68</v>
@@ -11598,10 +11598,10 @@
         <v>211</v>
       </c>
       <c r="AB26" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC26" s="54" t="s">
         <v>261</v>
-      </c>
-      <c r="AC26" s="54" t="s">
-        <v>262</v>
       </c>
       <c r="AD26" s="61" t="s">
         <v>68</v>
@@ -11815,14 +11815,14 @@
     <row r="31" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B31" s="105"/>
       <c r="C31" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G31" s="75"/>
       <c r="H31" s="131"/>
@@ -12034,7 +12034,7 @@
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
       <c r="I38" s="112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J38" s="112"/>
       <c r="K38" s="112"/>
@@ -12056,10 +12056,10 @@
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C40" s="88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L40" s="88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA40" s="55" t="s">
         <v>7</v>
@@ -12106,7 +12106,7 @@
         <v>139</v>
       </c>
       <c r="L41" s="135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M41" s="135">
         <v>2020</v>
@@ -12121,7 +12121,7 @@
         <v>182</v>
       </c>
       <c r="AC41" s="127" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AD41" s="127" t="s">
         <v>41</v>
@@ -12142,16 +12142,16 @@
       <c r="C42" s="95"/>
       <c r="D42" s="95"/>
       <c r="I42" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J42" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K42" s="127" t="s">
         <v>142</v>
       </c>
       <c r="L42" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M42" s="122">
         <v>0.4</v>
@@ -12166,7 +12166,7 @@
         <v>190</v>
       </c>
       <c r="AC42" s="127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AD42" s="127" t="s">
         <v>41</v>
@@ -12187,16 +12187,16 @@
         <v>6.5924657534246575E-2</v>
       </c>
       <c r="I43" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J43" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K43" s="127" t="s">
         <v>142</v>
       </c>
       <c r="L43" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M43" s="122">
         <v>4</v>
@@ -12211,7 +12211,7 @@
         <v>179</v>
       </c>
       <c r="AC43" s="127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AD43" s="127" t="s">
         <v>41</v>
@@ -12232,16 +12232,16 @@
         <v>0.13356164383561642</v>
       </c>
       <c r="I44" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J44" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K44" s="136" t="s">
         <v>121</v>
       </c>
       <c r="L44" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M44" s="122">
         <v>0.8</v>
@@ -12256,7 +12256,7 @@
         <v>168</v>
       </c>
       <c r="AC44" s="127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD44" s="127" t="s">
         <v>41</v>
@@ -12281,16 +12281,16 @@
         <v>5.9931506849315065E-3</v>
       </c>
       <c r="I45" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J45" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K45" s="136" t="s">
         <v>123</v>
       </c>
       <c r="L45" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M45" s="122">
         <v>0.7</v>
@@ -12330,16 +12330,16 @@
         <v>9.6849315068493147E-2</v>
       </c>
       <c r="I46" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J46" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K46" s="136" t="s">
         <v>124</v>
       </c>
       <c r="L46" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M46" s="122">
         <v>0.8</v>
@@ -12379,16 +12379,16 @@
         <v>0.17179223744292235</v>
       </c>
       <c r="I47" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J47" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K47" s="136" t="s">
         <v>132</v>
       </c>
       <c r="L47" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M47" s="122">
         <v>0.7</v>
@@ -12403,7 +12403,7 @@
         <v>64</v>
       </c>
       <c r="AC47" s="127" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AD47" s="127" t="s">
         <v>68</v>
@@ -12424,16 +12424,16 @@
         <v>8.0707762557077605E-3</v>
       </c>
       <c r="I48" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J48" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K48" s="136" t="s">
         <v>133</v>
       </c>
       <c r="L48" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M48" s="122">
         <v>0.8</v>
@@ -12448,7 +12448,7 @@
         <v>151</v>
       </c>
       <c r="AC48" s="127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD48" s="127" t="s">
         <v>41</v>
@@ -12471,16 +12471,16 @@
         <v>6.9440639269406385E-2</v>
       </c>
       <c r="I49" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J49" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K49" s="136" t="s">
         <v>135</v>
       </c>
       <c r="L49" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M49" s="122">
         <v>0.7</v>
@@ -12492,10 +12492,10 @@
         <v>219</v>
       </c>
       <c r="AB49" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AC49" s="127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD49" s="127" t="s">
         <v>41</v>
@@ -12518,16 +12518,16 @@
         <v>0.14068493150684933</v>
       </c>
       <c r="I50" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J50" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K50" s="136" t="s">
         <v>136</v>
       </c>
       <c r="L50" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M50" s="122">
         <v>0.8</v>
@@ -12547,16 +12547,16 @@
         <v>6.3127853881278532E-3</v>
       </c>
       <c r="I51" s="121" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J51" s="127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K51" s="136" t="s">
         <v>138</v>
       </c>
       <c r="L51" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M51" s="122">
         <v>0.7</v>

--- a/SubRES_TMPL/SubRES_Storage.xlsx
+++ b/SubRES_TMPL/SubRES_Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C732AED-AEB7-4D00-B3ED-032A9680E1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79251323-4107-48BD-AA6D-29548EAE11A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="S9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1194,7 +1194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="O11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1290,7 +1290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="V12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1339,7 +1339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="T14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1387,7 +1387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="Q16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="P17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1459,7 +1459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="I18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1481,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="M18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1506,7 +1506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="AA18" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1535,7 +1535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="I19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="G20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1581,7 +1581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="G21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X31" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="Y31" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1719,7 +1719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB31" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="AC31" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1745,7 +1745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC31" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
+    <comment ref="AD31" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1818,7 +1818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD31" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
+    <comment ref="AE31" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1871,7 +1871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE31" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
+    <comment ref="AF31" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1918,7 +1918,7 @@
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="AF8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="AG8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2011,7 +2011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="AH8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2036,7 +2036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="AI8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2099,7 +2099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="X9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2124,7 +2124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="AB9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2396,7 +2396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="J14" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2418,7 +2418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC14" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="AD14" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2447,7 +2447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="J15" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2491,7 +2491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="J16" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -2599,7 +2599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="J20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -2623,7 +2623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+    <comment ref="O20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -2647,7 +2647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+    <comment ref="P20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+    <comment ref="T26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -2782,7 +2782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N27" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+    <comment ref="O27" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -2806,7 +2806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
+    <comment ref="T28" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -2854,7 +2854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA40" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
+    <comment ref="AB40" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2968,7 +2968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE40" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
+    <comment ref="AF40" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2994,7 +2994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
+    <comment ref="AG40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
       <text>
         <r>
           <rPr>
@@ -3067,7 +3067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+    <comment ref="AH40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -3120,7 +3120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
+    <comment ref="AI40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -3153,7 +3153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M42" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+    <comment ref="N42" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -3182,7 +3182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="280">
   <si>
     <t>TechName</t>
   </si>
@@ -5189,8 +5189,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView topLeftCell="Q27" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AH45" sqref="AH45"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5655,11 +5655,9 @@
       <c r="Q12" s="78"/>
       <c r="R12" s="78">
         <f>9/24/(1-S12)</f>
-        <v>0.44117647058823528</v>
-      </c>
-      <c r="S12" s="78">
-        <v>0.15</v>
-      </c>
+        <v>0.375</v>
+      </c>
+      <c r="S12" s="78"/>
       <c r="T12" s="79"/>
       <c r="U12" s="79"/>
       <c r="V12" s="78"/>
@@ -7540,7 +7538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="90" workbookViewId="0">
       <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
@@ -8471,9 +8469,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE57"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8481,31 +8481,31 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="20" width="9.7109375" customWidth="1"/>
-    <col min="21" max="22" width="8.85546875" customWidth="1"/>
-    <col min="23" max="23" width="2" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" customWidth="1"/>
-    <col min="26" max="26" width="69.42578125" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" customWidth="1"/>
-    <col min="31" max="31" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="23" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="2" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="69.42578125" customWidth="1"/>
+    <col min="28" max="28" width="6.85546875" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>36</v>
       </c>
@@ -8518,8 +8518,9 @@
       <c r="E3" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>195</v>
       </c>
@@ -8532,44 +8533,46 @@
       <c r="E4" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="14"/>
+      <c r="H7" s="4" t="str">
         <f>"~FI_T: "&amp;E4</f>
         <v>~FI_T: MEuro05</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="14"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="3"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="X7" s="53" t="s">
+      <c r="W7" s="3"/>
+      <c r="Y7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="61"/>
       <c r="Z7" s="61"/>
       <c r="AA7" s="61"/>
       <c r="AB7" s="61"/>
       <c r="AC7" s="61"/>
       <c r="AD7" s="61"/>
       <c r="AE7" s="61"/>
-    </row>
-    <row r="8" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AF7" s="61"/>
+    </row>
+    <row r="8" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
@@ -8582,83 +8585,86 @@
       <c r="E8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="H8" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="H8" s="68">
+      <c r="I8" s="68">
         <v>2020</v>
       </c>
-      <c r="I8" s="68">
+      <c r="J8" s="68">
         <v>2030</v>
       </c>
-      <c r="J8" s="68">
+      <c r="K8" s="68">
         <v>2050</v>
       </c>
-      <c r="K8" s="87" t="s">
+      <c r="L8" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="M8" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="N8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="O8" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="O8" s="68" t="s">
+      <c r="P8" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="Q8" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="Q8" s="68" t="s">
+      <c r="R8" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="68" t="s">
+      <c r="S8" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="T8" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="T8" s="37" t="s">
+      <c r="U8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="37" t="s">
+      <c r="V8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="V8" s="37" t="s">
+      <c r="W8" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="X8" s="55" t="s">
+      <c r="Y8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="55" t="s">
+      <c r="Z8" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" s="55" t="s">
+      <c r="AA8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="55" t="s">
+      <c r="AB8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AB8" s="55" t="s">
+      <c r="AC8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="55" t="s">
+      <c r="AD8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AD8" s="55" t="s">
+      <c r="AE8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AE8" s="55" t="s">
+      <c r="AF8" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>46</v>
       </c>
@@ -8669,108 +8675,110 @@
         <v>95</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="73"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="86" t="s">
+      <c r="O9" s="86" t="s">
         <v>47</v>
-      </c>
-      <c r="O9" s="86" t="s">
-        <v>149</v>
       </c>
       <c r="P9" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="Q9" s="85" t="s">
+      <c r="Q9" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="R9" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="R9" s="85" t="s">
+      <c r="S9" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="85" t="s">
+      <c r="T9" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="T9" s="85" t="s">
+      <c r="U9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="U9" s="85" t="s">
+      <c r="V9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="85" t="s">
+      <c r="W9" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="57" t="s">
+      <c r="Y9" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="57" t="s">
+      <c r="Z9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Z9" s="57" t="s">
+      <c r="AA9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AA9" s="57" t="s">
+      <c r="AB9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="57" t="s">
+      <c r="AC9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AC9" s="57" t="s">
+      <c r="AD9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AD9" s="57" t="s">
+      <c r="AE9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AE9" s="57" t="s">
+      <c r="AF9" s="57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="74"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="74"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="74"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="84"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="77"/>
       <c r="M10" s="84"/>
-      <c r="N10" s="38"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
-      <c r="Q10" s="84"/>
+      <c r="Q10" s="38"/>
       <c r="R10" s="84"/>
       <c r="S10" s="84"/>
-      <c r="T10" s="84" t="s">
+      <c r="T10" s="84"/>
+      <c r="U10" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="84"/>
       <c r="V10" s="84"/>
-      <c r="X10" s="57" t="s">
+      <c r="W10" s="84"/>
+      <c r="Y10" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" s="57"/>
       <c r="Z10" s="57"/>
       <c r="AA10" s="57"/>
       <c r="AB10" s="57"/>
       <c r="AC10" s="57"/>
       <c r="AD10" s="57"/>
       <c r="AE10" s="57"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="57"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" s="105" t="str">
-        <f>$Y11</f>
+        <f>$Z11</f>
         <v>RSOLPV1</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -8780,73 +8788,74 @@
         <v>202</v>
       </c>
       <c r="E11" s="79"/>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="79">
+      <c r="H11" s="75"/>
+      <c r="I11" s="79">
         <v>900</v>
       </c>
-      <c r="I11" s="79">
+      <c r="J11" s="79">
         <v>800</v>
       </c>
-      <c r="J11" s="80">
+      <c r="K11" s="80">
         <v>700</v>
       </c>
-      <c r="K11" s="101">
+      <c r="L11" s="101">
         <v>2015</v>
       </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="80">
+      <c r="M11" s="82"/>
+      <c r="N11" s="80">
         <v>1</v>
       </c>
-      <c r="N11" s="78">
+      <c r="O11" s="78">
         <v>0.15</v>
       </c>
-      <c r="O11" s="78"/>
       <c r="P11" s="78"/>
-      <c r="Q11" s="79">
-        <f>I11</f>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79">
+        <f>J11</f>
         <v>800</v>
       </c>
-      <c r="R11" s="79">
-        <f>Q11*0.015</f>
+      <c r="S11" s="79">
+        <f>R11*0.015</f>
         <v>12</v>
       </c>
-      <c r="S11" s="100"/>
-      <c r="T11" s="79">
+      <c r="T11" s="100"/>
+      <c r="U11" s="79">
         <v>30</v>
       </c>
-      <c r="U11" s="79">
+      <c r="V11" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="V11" s="79"/>
-      <c r="X11" s="60" t="s">
+      <c r="W11" s="79"/>
+      <c r="Y11" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="Y11" s="59" t="s">
+      <c r="Z11" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="Z11" s="62" t="s">
+      <c r="AA11" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="AA11" s="59" t="s">
+      <c r="AB11" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" s="59" t="s">
+      <c r="AC11" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" s="59" t="s">
+      <c r="AD11" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="AD11" s="59" t="s">
+      <c r="AE11" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="AE11" s="59"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="59"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="105" t="str">
-        <f>$Y12</f>
+        <f>$Z12</f>
         <v>RSTGBAT1</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -8858,160 +8867,163 @@
       <c r="E12" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="79"/>
+      <c r="G12" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="79">
+      <c r="H12" s="75"/>
+      <c r="I12" s="79">
         <v>440</v>
       </c>
-      <c r="I12" s="79">
+      <c r="J12" s="79">
         <v>250</v>
       </c>
-      <c r="J12" s="80">
+      <c r="K12" s="80">
         <v>220</v>
       </c>
-      <c r="K12" s="101">
+      <c r="L12" s="101">
         <v>2015</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="78"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="80"/>
       <c r="O12" s="78"/>
-      <c r="P12" s="100">
-        <f>P13*6</f>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="100">
+        <f>Q13*6</f>
         <v>6</v>
       </c>
-      <c r="Q12" s="79">
-        <f>I12</f>
+      <c r="R12" s="79">
+        <f>J12</f>
         <v>250</v>
       </c>
-      <c r="R12" s="79">
-        <f>Q12*0.014</f>
+      <c r="S12" s="79">
+        <f>R12*0.014</f>
         <v>3.5</v>
       </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="79">
+      <c r="T12" s="100"/>
+      <c r="U12" s="79">
         <v>25</v>
       </c>
-      <c r="U12" s="79">
-        <f>U11/24</f>
+      <c r="V12" s="79">
+        <f>V11/24</f>
         <v>1.3140000000000001</v>
       </c>
-      <c r="V12" s="79"/>
-      <c r="X12" t="s">
+      <c r="W12" s="79"/>
+      <c r="Y12" t="s">
         <v>78</v>
       </c>
-      <c r="Y12" s="59" t="s">
+      <c r="Z12" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="Z12" s="62" t="s">
+      <c r="AA12" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="AA12" s="59" t="s">
+      <c r="AB12" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="59" t="s">
+      <c r="AC12" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="AC12" s="60" t="s">
+      <c r="AD12" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="AD12" s="14" t="s">
+      <c r="AE12" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="AE12" s="59"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="59"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B13" s="105"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="79"/>
+      <c r="G13" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="79">
+      <c r="H13" s="75"/>
+      <c r="I13" s="79">
         <v>0.91</v>
       </c>
-      <c r="I13" s="79">
+      <c r="J13" s="79">
         <v>0.92</v>
       </c>
-      <c r="J13" s="78">
+      <c r="K13" s="78">
         <v>0.92</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="78"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="80"/>
       <c r="O13" s="78"/>
-      <c r="P13" s="100">
+      <c r="P13" s="78"/>
+      <c r="Q13" s="100">
         <v>1</v>
       </c>
-      <c r="Q13" s="79"/>
       <c r="R13" s="79"/>
-      <c r="T13" s="79"/>
+      <c r="S13" s="79"/>
       <c r="U13" s="79"/>
       <c r="V13" s="79"/>
-      <c r="X13" s="106" t="s">
-        <v>62</v>
-      </c>
+      <c r="W13" s="79"/>
       <c r="Y13" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="106"/>
+      <c r="Z13" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" s="107"/>
       <c r="AB13" s="106"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="108"/>
       <c r="AE13" s="106"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="106"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" s="105"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="79"/>
-      <c r="F14" s="75"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="75"/>
-      <c r="H14" s="79"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="79"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="78">
+      <c r="J14" s="79"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="78">
         <v>0.95</v>
       </c>
-      <c r="N14" s="78"/>
       <c r="O14" s="78"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="79"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="100"/>
       <c r="R14" s="79"/>
-      <c r="S14" s="100">
+      <c r="S14" s="79"/>
+      <c r="T14" s="100">
         <v>6</v>
       </c>
-      <c r="T14" s="79"/>
       <c r="U14" s="79"/>
       <c r="V14" s="79"/>
-      <c r="X14" s="106" t="s">
-        <v>62</v>
-      </c>
+      <c r="W14" s="79"/>
       <c r="Y14" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="106"/>
+      <c r="Z14" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="107"/>
       <c r="AB14" s="106"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="108"/>
       <c r="AE14" s="106"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="106"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="105" t="str">
-        <f>$Y15</f>
+        <f>$Z15</f>
         <v>RSOLPV2</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -9023,122 +9035,124 @@
       <c r="E15" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="79">
-        <f>H11+H12*24/$P12*0.7</f>
+      <c r="H15" s="75"/>
+      <c r="I15" s="79">
+        <f>I11+I12*24/$Q12*0.7</f>
         <v>2132</v>
       </c>
-      <c r="I15" s="79">
-        <f>I11+I12*24/$P12*0.7</f>
+      <c r="J15" s="79">
+        <f>J11+J12*24/$Q12*0.7</f>
         <v>1500</v>
       </c>
-      <c r="J15" s="79">
-        <f>J11+J12*24/$P12*0.7</f>
+      <c r="K15" s="79">
+        <f>K11+K12*24/$Q12*0.7</f>
         <v>1316</v>
       </c>
-      <c r="K15" s="101">
+      <c r="L15" s="101">
         <v>2015</v>
       </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="21"/>
+      <c r="M15" s="82"/>
       <c r="N15" s="21"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78">
+      <c r="O15" s="21"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78">
         <v>1</v>
       </c>
-      <c r="Q15" s="115">
-        <f>I15</f>
+      <c r="R15" s="115">
+        <f>J15</f>
         <v>1500</v>
       </c>
-      <c r="R15" s="79">
-        <f>I15*0.015</f>
+      <c r="S15" s="79">
+        <f>J15*0.015</f>
         <v>22.5</v>
       </c>
-      <c r="S15" s="21"/>
-      <c r="T15" s="79">
+      <c r="T15" s="21"/>
+      <c r="U15" s="79">
         <v>30</v>
       </c>
-      <c r="U15" s="79">
+      <c r="V15" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="V15" s="120">
+      <c r="W15" s="120">
         <v>1</v>
       </c>
-      <c r="X15" s="60" t="s">
+      <c r="Y15" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="Y15" s="59" t="s">
+      <c r="Z15" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="Z15" s="62" t="s">
+      <c r="AA15" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="AA15" s="59" t="s">
+      <c r="AB15" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="59" t="s">
+      <c r="AC15" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="AC15" s="60" t="s">
+      <c r="AD15" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="AD15" s="14" t="s">
+      <c r="AE15" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="AE15" s="59"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="59"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="105"/>
       <c r="C16" s="14"/>
       <c r="D16" s="21"/>
       <c r="E16" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="114"/>
+      <c r="G16" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="79">
+      <c r="H16" s="75"/>
+      <c r="I16" s="79">
         <v>0.91</v>
       </c>
-      <c r="I16" s="79">
+      <c r="J16" s="79">
         <v>0.92</v>
       </c>
-      <c r="J16" s="78">
+      <c r="K16" s="78">
         <v>0.93</v>
       </c>
-      <c r="K16" s="101"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="82"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="119">
+      <c r="P16" s="21"/>
+      <c r="Q16" s="119">
         <f>4/24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
-      <c r="U16" s="6"/>
+      <c r="U16" s="21"/>
       <c r="V16" s="6"/>
-      <c r="X16" s="106" t="s">
-        <v>62</v>
-      </c>
+      <c r="W16" s="6"/>
       <c r="Y16" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="106"/>
+      <c r="Z16" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" s="107"/>
       <c r="AB16" s="106"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="108"/>
       <c r="AE16" s="106"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="106"/>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B17" s="105"/>
       <c r="C17" s="14" t="s">
         <v>196</v>
@@ -9147,41 +9161,42 @@
       <c r="E17" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="75"/>
-      <c r="H17" s="79"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="79"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="21"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="82"/>
       <c r="N17" s="21"/>
-      <c r="O17" s="78">
-        <f>N11</f>
+      <c r="O17" s="21"/>
+      <c r="P17" s="78">
+        <f>O11</f>
         <v>0.15</v>
       </c>
-      <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="6"/>
+      <c r="U17" s="21"/>
       <c r="V17" s="6"/>
-      <c r="X17" s="106" t="s">
-        <v>62</v>
-      </c>
+      <c r="W17" s="6"/>
       <c r="Y17" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="106"/>
+      <c r="Z17" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="107"/>
       <c r="AB17" s="106"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="108"/>
       <c r="AE17" s="106"/>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="106"/>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B18" s="105" t="str">
-        <f>$Y18</f>
+        <f>$Z18</f>
         <v>RCASIFTELC1</v>
       </c>
       <c r="C18" s="14"/>
@@ -9189,189 +9204,195 @@
         <v>202</v>
       </c>
       <c r="E18" s="114"/>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="114"/>
+      <c r="G18" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="79">
+      <c r="H18" s="75"/>
+      <c r="I18" s="79">
         <v>0.25</v>
       </c>
-      <c r="I18" s="79">
+      <c r="J18" s="79">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J18" s="78">
+      <c r="K18" s="78">
         <v>0.33</v>
       </c>
-      <c r="K18" s="101">
+      <c r="L18" s="101">
         <v>2025</v>
       </c>
-      <c r="L18" s="82">
+      <c r="M18" s="82">
         <v>3</v>
       </c>
-      <c r="M18" s="21"/>
       <c r="N18" s="21"/>
-      <c r="O18" s="78"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="115">
+      <c r="O18" s="21"/>
+      <c r="P18" s="78"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="115">
         <v>80</v>
       </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="115">
+      <c r="T18" s="21"/>
+      <c r="U18" s="115">
         <v>5</v>
       </c>
-      <c r="U18" s="79">
+      <c r="V18" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="V18" s="6"/>
-      <c r="X18" s="59" t="s">
+      <c r="W18" s="6"/>
+      <c r="Y18" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" s="54" t="s">
+      <c r="Z18" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="Z18" s="54" t="s">
+      <c r="AA18" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="AA18" s="61" t="s">
+      <c r="AB18" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="61" t="s">
+      <c r="AC18" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AC18" s="60" t="s">
+      <c r="AD18" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="AD18" s="60" t="s">
+      <c r="AE18" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="AE18" s="59"/>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="59"/>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B19" s="105"/>
       <c r="D19" s="21"/>
       <c r="E19" s="114"/>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="79">
+      <c r="H19" s="75"/>
+      <c r="I19" s="79">
         <v>0.09</v>
       </c>
-      <c r="I19" s="79">
+      <c r="J19" s="79">
         <v>0.11</v>
       </c>
-      <c r="J19" s="100">
+      <c r="K19" s="100">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K19" s="101"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="21"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="82"/>
       <c r="N19" s="21"/>
-      <c r="O19" s="78"/>
-      <c r="Q19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="78"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
-      <c r="U19" s="6"/>
+      <c r="U19" s="21"/>
       <c r="V19" s="6"/>
-      <c r="X19" s="106" t="s">
-        <v>62</v>
-      </c>
+      <c r="W19" s="6"/>
       <c r="Y19" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="106"/>
+      <c r="Z19" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA19" s="107"/>
       <c r="AB19" s="106"/>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="106"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="108"/>
       <c r="AE19" s="106"/>
-    </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="106"/>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B20" s="105"/>
       <c r="D20" s="21"/>
       <c r="E20" s="114"/>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="114"/>
+      <c r="G20" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="H20" s="131" t="s">
         <v>258</v>
       </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79">
+      <c r="I20" s="79"/>
+      <c r="J20" s="79">
         <v>0.25</v>
       </c>
-      <c r="J20" s="100">
+      <c r="K20" s="100">
         <v>0.2</v>
       </c>
-      <c r="K20" s="101"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="21"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="82"/>
       <c r="N20" s="21"/>
-      <c r="O20" s="78"/>
-      <c r="Q20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="78"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="6"/>
+      <c r="U20" s="21"/>
       <c r="V20" s="6"/>
-      <c r="X20" s="106" t="s">
-        <v>62</v>
-      </c>
+      <c r="W20" s="6"/>
       <c r="Y20" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="106"/>
+      <c r="Z20" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA20" s="107"/>
       <c r="AB20" s="106"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="108"/>
       <c r="AE20" s="106"/>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="106"/>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B21" s="105"/>
       <c r="D21" s="21"/>
       <c r="E21" s="114"/>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="114"/>
+      <c r="G21" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="G21" s="131" t="s">
+      <c r="H21" s="131" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79">
+      <c r="I21" s="79"/>
+      <c r="J21" s="79">
         <v>0.25</v>
       </c>
-      <c r="J21" s="100">
+      <c r="K21" s="100">
         <v>0.2</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="21"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="82"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="78"/>
-      <c r="Q21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="78"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="6"/>
+      <c r="U21" s="21"/>
       <c r="V21" s="6"/>
-      <c r="X21" s="106" t="s">
-        <v>62</v>
-      </c>
+      <c r="W21" s="6"/>
       <c r="Y21" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="106"/>
+      <c r="Z21" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA21" s="107"/>
       <c r="AB21" s="106"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="108"/>
       <c r="AE21" s="106"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="106"/>
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B22" s="105" t="str">
-        <f>$Y22</f>
+        <f>$Z22</f>
         <v>RSHNELC3</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -9383,68 +9404,69 @@
       <c r="E22" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="70"/>
+      <c r="G22" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="79">
+      <c r="H22" s="75"/>
+      <c r="I22" s="79">
         <v>0.95</v>
       </c>
-      <c r="I22" s="79">
+      <c r="J22" s="79">
         <v>0.96</v>
       </c>
-      <c r="J22" s="78">
+      <c r="K22" s="78">
         <v>0.97</v>
       </c>
-      <c r="K22" s="101">
+      <c r="L22" s="101">
         <v>2015</v>
       </c>
-      <c r="L22" s="82"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="69">
+      <c r="M22" s="82"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="69">
         <v>0.3</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="115">
+      <c r="P22" s="21"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="115">
         <v>800</v>
       </c>
-      <c r="R22" s="115">
-        <f>Q22*0.02</f>
+      <c r="S22" s="115">
+        <f>R22*0.02</f>
         <v>16</v>
       </c>
-      <c r="S22" s="21"/>
       <c r="T22" s="21"/>
-      <c r="U22" s="79">
+      <c r="U22" s="21"/>
+      <c r="V22" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="V22" s="6"/>
-      <c r="X22" s="59" t="s">
+      <c r="W22" s="6"/>
+      <c r="Y22" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="Y22" s="59" t="s">
+      <c r="Z22" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="Z22" s="62" t="s">
+      <c r="AA22" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="AA22" s="59" t="s">
+      <c r="AB22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AB22" s="59" t="s">
+      <c r="AC22" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="AC22" s="59" t="s">
+      <c r="AD22" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="AD22" s="59" t="s">
+      <c r="AE22" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="AE22" s="59"/>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="59"/>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B23" s="105" t="str">
-        <f>$Y23</f>
+        <f>$Z23</f>
         <v>RSHNSOL3</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -9456,121 +9478,122 @@
       <c r="E23" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="70"/>
+      <c r="G23" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="79">
+      <c r="H23" s="75"/>
+      <c r="I23" s="79">
         <v>0.95</v>
       </c>
-      <c r="I23" s="79">
+      <c r="J23" s="79">
         <v>0.96</v>
       </c>
-      <c r="J23" s="78">
+      <c r="K23" s="78">
         <v>0.97</v>
       </c>
-      <c r="K23" s="101">
+      <c r="L23" s="101">
         <v>2015</v>
       </c>
-      <c r="L23" s="82"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="69">
+      <c r="M23" s="82"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="69">
         <v>0.3</v>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="115">
+      <c r="P23" s="21"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="115">
         <v>1100</v>
       </c>
-      <c r="R23" s="115">
-        <f>Q23*0.02</f>
+      <c r="S23" s="115">
+        <f>R23*0.02</f>
         <v>22</v>
       </c>
-      <c r="S23" s="21"/>
       <c r="T23" s="21"/>
-      <c r="U23" s="120">
-        <f>U12*24</f>
+      <c r="U23" s="21"/>
+      <c r="V23" s="120">
+        <f>V12*24</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="V23" s="6"/>
-      <c r="X23" s="59" t="s">
+      <c r="W23" s="6"/>
+      <c r="Y23" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="Y23" s="59" t="s">
+      <c r="Z23" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="Z23" s="62" t="s">
+      <c r="AA23" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="AA23" s="59" t="s">
+      <c r="AB23" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AB23" s="59" t="s">
+      <c r="AC23" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="59" t="s">
+      <c r="AD23" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="AD23" s="59" t="s">
+      <c r="AE23" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="AE23" s="59"/>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="59"/>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C24" s="14" t="s">
         <v>196</v>
       </c>
       <c r="D24" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="75"/>
       <c r="G24" s="75"/>
-      <c r="H24" s="79"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="79"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="82"/>
-      <c r="N24" s="69"/>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="J24" s="79"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="82"/>
+      <c r="O24" s="69"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B25" s="20"/>
       <c r="C25" s="14"/>
-      <c r="F25" s="75"/>
       <c r="G25" s="75"/>
-      <c r="H25" s="79"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="79"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="21"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="82"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="118"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
-      <c r="U25" s="6"/>
+      <c r="U25" s="21"/>
       <c r="V25" s="6"/>
-      <c r="X25" s="59"/>
+      <c r="W25" s="6"/>
       <c r="Y25" s="59"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="62"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="59"/>
       <c r="AD25" s="59"/>
       <c r="AE25" s="59"/>
-    </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="59"/>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="42"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="40"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
@@ -9581,25 +9604,26 @@
       <c r="R26" s="40"/>
       <c r="S26" s="40"/>
       <c r="T26" s="40"/>
-      <c r="U26" s="44"/>
+      <c r="U26" s="40"/>
       <c r="V26" s="44"/>
-      <c r="X26" s="59"/>
+      <c r="W26" s="44"/>
       <c r="Y26" s="59"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="62"/>
       <c r="AB26" s="59"/>
       <c r="AC26" s="59"/>
       <c r="AD26" s="59"/>
       <c r="AE26" s="59"/>
-    </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="59"/>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="41"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="23"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="43"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
@@ -9610,27 +9634,28 @@
       <c r="R27" s="23"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
-      <c r="U27" s="6"/>
+      <c r="U27" s="23"/>
       <c r="V27" s="6"/>
-      <c r="X27" s="59"/>
+      <c r="W27" s="6"/>
       <c r="Y27" s="59"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="62"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="59"/>
       <c r="AD27" s="59"/>
       <c r="AE27" s="59"/>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="59"/>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="45"/>
-      <c r="F28" s="43"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
       <c r="M28" s="26"/>
@@ -9644,37 +9669,39 @@
       <c r="U28" s="26"/>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X28" s="26"/>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" s="112" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="112"/>
       <c r="D29" s="112"/>
       <c r="E29" s="45"/>
-      <c r="F29" s="43"/>
-      <c r="L29" s="112" t="s">
+      <c r="F29" s="45"/>
+      <c r="G29" s="43"/>
+      <c r="M29" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="M29" s="112"/>
       <c r="N29" s="112"/>
       <c r="O29" s="112"/>
       <c r="P29" s="112"/>
-      <c r="Q29" s="26"/>
+      <c r="Q29" s="112"/>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
       <c r="V29" s="26"/>
       <c r="W29" s="26"/>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X29" s="26"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E30" s="45"/>
-      <c r="F30" s="43"/>
-      <c r="L30" s="43"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="43"/>
       <c r="M30" s="43"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="26"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="26"/>
@@ -9683,29 +9710,30 @@
       <c r="U30" s="26"/>
       <c r="V30" s="26"/>
       <c r="W30" s="26"/>
-      <c r="X30" s="53" t="s">
+      <c r="X30" s="26"/>
+      <c r="Y30" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Y30" s="54"/>
       <c r="Z30" s="54"/>
       <c r="AA30" s="54"/>
       <c r="AB30" s="54"/>
       <c r="AC30" s="54"/>
       <c r="AD30" s="54"/>
       <c r="AE30" s="54"/>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="54"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C31" s="88" t="s">
         <v>277</v>
       </c>
       <c r="E31" s="45"/>
-      <c r="F31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="88" t="s">
+      <c r="F31" s="45"/>
+      <c r="G31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
@@ -9713,32 +9741,33 @@
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
       <c r="W31" s="26"/>
-      <c r="X31" s="55" t="s">
+      <c r="X31" s="26"/>
+      <c r="Y31" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="Y31" s="55" t="s">
+      <c r="Z31" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Z31" s="55" t="s">
+      <c r="AA31" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AA31" s="55" t="s">
+      <c r="AB31" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AB31" s="55" t="s">
+      <c r="AC31" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AC31" s="55" t="s">
+      <c r="AD31" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AD31" s="55" t="s">
+      <c r="AE31" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AE31" s="55" t="s">
+      <c r="AF31" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B32" s="89" t="s">
         <v>5</v>
       </c>
@@ -9749,96 +9778,98 @@
         <v>2020</v>
       </c>
       <c r="E32" s="45"/>
-      <c r="F32" s="43"/>
-      <c r="L32" s="12" t="s">
+      <c r="F32" s="45"/>
+      <c r="G32" s="43"/>
+      <c r="M32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="M32" s="89" t="s">
+      <c r="N32" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="O32" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="P32" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="P32" s="68">
+      <c r="Q32" s="68">
         <v>2020</v>
       </c>
-      <c r="Q32" s="68">
+      <c r="R32" s="68">
         <v>0</v>
       </c>
-      <c r="R32" s="26"/>
       <c r="S32" s="26"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
       <c r="W32" s="26"/>
-      <c r="X32" s="127" t="s">
+      <c r="X32" s="26"/>
+      <c r="Y32" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="Y32" s="127" t="s">
+      <c r="Z32" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="Z32" s="127" t="s">
+      <c r="AA32" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="AA32" s="125" t="s">
+      <c r="AB32" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="AB32" s="122" t="s">
+      <c r="AC32" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="AC32" s="127" t="s">
+      <c r="AD32" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="AD32" s="127"/>
       <c r="AE32" s="127"/>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="127"/>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B33" s="95" t="s">
         <v>212</v>
       </c>
       <c r="C33" s="95"/>
       <c r="D33" s="95"/>
       <c r="E33" s="45"/>
-      <c r="F33" s="43"/>
-      <c r="L33" s="95" t="s">
+      <c r="F33" s="45"/>
+      <c r="G33" s="43"/>
+      <c r="M33" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="M33" s="95" t="s">
+      <c r="N33" s="95" t="s">
         <v>214</v>
       </c>
-      <c r="N33" s="95" t="s">
+      <c r="O33" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="O33" s="95"/>
       <c r="P33" s="95"/>
       <c r="Q33" s="95"/>
-      <c r="R33" s="26"/>
+      <c r="R33" s="95"/>
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
       <c r="V33" s="26"/>
       <c r="W33" s="26"/>
-      <c r="X33" s="127" t="s">
+      <c r="X33" s="26"/>
+      <c r="Y33" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="Y33" s="127" t="s">
+      <c r="Z33" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="Z33" s="127" t="s">
+      <c r="AA33" s="127" t="s">
         <v>232</v>
       </c>
-      <c r="AA33" s="127" t="s">
+      <c r="AB33" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="127"/>
       <c r="AC33" s="127"/>
       <c r="AD33" s="127"/>
       <c r="AE33" s="127"/>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="127"/>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B34" s="127" t="s">
         <v>196</v>
       </c>
@@ -9849,53 +9880,54 @@
         <v>0.16905957273366545</v>
       </c>
       <c r="E34" s="45"/>
-      <c r="F34" s="43"/>
-      <c r="L34" s="121" t="s">
+      <c r="F34" s="45"/>
+      <c r="G34" s="43"/>
+      <c r="M34" s="121" t="s">
         <v>199</v>
-      </c>
-      <c r="M34" s="91" t="s">
-        <v>202</v>
       </c>
       <c r="N34" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="O34" s="122" t="s">
+      <c r="O34" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="P34" s="123">
+      <c r="Q34" s="123">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q34" s="123">
+      <c r="R34" s="123">
         <v>3</v>
       </c>
-      <c r="R34" s="26"/>
       <c r="S34" s="26"/>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
       <c r="V34" s="26"/>
       <c r="W34" s="26"/>
-      <c r="X34" s="127" t="s">
+      <c r="X34" s="26"/>
+      <c r="Y34" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="Y34" s="127" t="s">
+      <c r="Z34" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="Z34" s="127" t="s">
+      <c r="AA34" s="127" t="s">
         <v>232</v>
       </c>
-      <c r="AA34" s="127" t="s">
+      <c r="AB34" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="127"/>
-      <c r="AC34" s="127" t="s">
+      <c r="AC34" s="127"/>
+      <c r="AD34" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="AD34" s="127"/>
-      <c r="AE34" s="127" t="s">
+      <c r="AE34" s="127"/>
+      <c r="AF34" s="127" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35" s="127" t="s">
         <v>196</v>
       </c>
@@ -9906,49 +9938,50 @@
         <v>1.420814583571905E-2</v>
       </c>
       <c r="E35" s="45"/>
-      <c r="F35" s="43"/>
-      <c r="L35" s="121" t="s">
+      <c r="F35" s="45"/>
+      <c r="G35" s="43"/>
+      <c r="M35" s="121" t="s">
         <v>199</v>
-      </c>
-      <c r="M35" s="91" t="s">
-        <v>202</v>
       </c>
       <c r="N35" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="O35" s="123" t="s">
+      <c r="O35" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="P35" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="P35" s="124">
+      <c r="Q35" s="124">
         <v>0.15</v>
       </c>
-      <c r="Q35" s="130">
+      <c r="R35" s="130">
         <v>3</v>
       </c>
-      <c r="R35" s="26"/>
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
       <c r="V35" s="26"/>
       <c r="W35" s="26"/>
-      <c r="X35" s="127" t="s">
+      <c r="X35" s="26"/>
+      <c r="Y35" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="Y35" s="127" t="s">
+      <c r="Z35" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="Z35" s="127" t="s">
+      <c r="AA35" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="AA35" s="127" t="s">
+      <c r="AB35" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AB35" s="127"/>
       <c r="AC35" s="127"/>
       <c r="AD35" s="127"/>
       <c r="AE35" s="127"/>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="127"/>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B36" s="127" t="s">
         <v>196</v>
       </c>
@@ -9958,42 +9991,42 @@
       <c r="D36" s="99">
         <v>6.7616017513258894E-2</v>
       </c>
-      <c r="L36" s="121" t="s">
+      <c r="M36" s="121" t="s">
         <v>199</v>
-      </c>
-      <c r="M36" s="91" t="s">
-        <v>202</v>
       </c>
       <c r="N36" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="O36" s="123" t="s">
+      <c r="O36" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="P36" s="123">
+      <c r="Q36" s="123">
         <v>0.65</v>
       </c>
-      <c r="Q36" s="123">
+      <c r="R36" s="123">
         <v>3</v>
       </c>
-      <c r="X36" s="127" t="s">
+      <c r="Y36" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="Y36" s="127" t="s">
+      <c r="Z36" s="127" t="s">
         <v>251</v>
       </c>
-      <c r="Z36" s="127" t="s">
+      <c r="AA36" s="127" t="s">
         <v>253</v>
       </c>
-      <c r="AA36" s="127" t="s">
+      <c r="AB36" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="127"/>
       <c r="AC36" s="127"/>
       <c r="AD36" s="127"/>
       <c r="AE36" s="127"/>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF36" s="127"/>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="127" t="s">
         <v>196</v>
       </c>
@@ -10003,42 +10036,42 @@
       <c r="D37" s="99">
         <v>0.28599999999999998</v>
       </c>
-      <c r="L37" s="121" t="s">
+      <c r="M37" s="121" t="s">
         <v>199</v>
-      </c>
-      <c r="M37" s="91" t="s">
-        <v>202</v>
       </c>
       <c r="N37" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="O37" s="123" t="s">
+      <c r="O37" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="P37" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="P37" s="122">
+      <c r="Q37" s="122">
         <v>0.95</v>
       </c>
-      <c r="Q37" s="122">
+      <c r="R37" s="122">
         <v>3</v>
       </c>
-      <c r="X37" s="127" t="s">
+      <c r="Y37" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="Y37" s="127" t="s">
+      <c r="Z37" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="Z37" s="127" t="s">
+      <c r="AA37" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="AA37" s="127" t="s">
+      <c r="AB37" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AB37" s="127"/>
       <c r="AC37" s="127"/>
       <c r="AD37" s="127"/>
       <c r="AE37" s="127"/>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF37" s="127"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B38" s="127" t="s">
         <v>196</v>
       </c>
@@ -10048,26 +10081,26 @@
       <c r="D38" s="98">
         <v>0.05</v>
       </c>
-      <c r="L38" s="121" t="s">
+      <c r="M38" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="M38" s="91" t="s">
+      <c r="N38" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="N38" s="91" t="s">
+      <c r="O38" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="O38" s="123" t="s">
+      <c r="P38" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="P38" s="122">
+      <c r="Q38" s="122">
         <v>1</v>
       </c>
-      <c r="Q38" s="122">
+      <c r="R38" s="122">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B39" s="127" t="s">
         <v>196</v>
       </c>
@@ -10078,7 +10111,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40" s="127" t="s">
         <v>196</v>
       </c>
@@ -10089,7 +10122,7 @@
         <v>0.12836312880727049</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B41" s="127" t="s">
         <v>196</v>
       </c>
@@ -10100,7 +10133,7 @@
         <v>7.3503971836282583E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B42" s="127" t="s">
         <v>196</v>
       </c>
@@ -10111,7 +10144,7 @@
         <v>4.4544046283794082E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B43" s="127" t="s">
         <v>196</v>
       </c>
@@ -10122,7 +10155,7 @@
         <v>5.8346876730577493E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B44" s="127" t="s">
         <v>196</v>
       </c>
@@ -10133,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B45" s="128" t="s">
         <v>196</v>
       </c>
@@ -10144,7 +10177,7 @@
         <v>2.4511814912086205E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" s="127" t="s">
         <v>209</v>
       </c>
@@ -10155,7 +10188,7 @@
         <v>0.16905957273366545</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B47" s="127" t="s">
         <v>209</v>
       </c>
@@ -10166,7 +10199,7 @@
         <v>1.420814583571905E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" s="127" t="s">
         <v>209</v>
       </c>
@@ -10285,10 +10318,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:AH66"/>
+  <dimension ref="B1:AI66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10299,33 +10332,34 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="2" style="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" customWidth="1"/>
-    <col min="29" max="29" width="71.7109375" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" customWidth="1"/>
+    <col min="27" max="27" width="2" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1"/>
+    <col min="30" max="30" width="71.7109375" customWidth="1"/>
+    <col min="31" max="31" width="5.7109375" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:35" ht="15" x14ac:dyDescent="0.25">
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -10338,9 +10372,9 @@
       <c r="E2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="2:34" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
@@ -10354,14 +10388,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:34" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:35" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="7"/>
+      <c r="G4" s="25"/>
+      <c r="AA4" s="26"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
@@ -10369,48 +10403,50 @@
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="7"/>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="14"/>
+      <c r="H7" s="4" t="str">
         <f>"~FI_T: "&amp;E3</f>
         <v>~FI_T: MEuro05</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="5"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="4"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="3"/>
+      <c r="X7" s="5"/>
       <c r="Y7" s="3"/>
-      <c r="Z7"/>
-      <c r="AA7" s="53" t="s">
+      <c r="Z7" s="3"/>
+      <c r="AA7"/>
+      <c r="AB7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="61"/>
       <c r="AC7" s="61"/>
       <c r="AD7" s="61"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="61"/>
       <c r="AH7" s="61"/>
-    </row>
-    <row r="8" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AI7" s="61"/>
+    </row>
+    <row r="8" spans="2:35" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
@@ -10426,90 +10462,93 @@
       <c r="F8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="I8" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="68">
+      <c r="J8" s="68">
         <v>2020</v>
       </c>
-      <c r="J8" s="68">
+      <c r="K8" s="68">
         <v>2030</v>
       </c>
-      <c r="K8" s="68">
+      <c r="L8" s="68">
         <v>2050</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="M8" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="N8" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="O8" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="P8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="Q8" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="R8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="S8" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="T8" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="T8" s="68" t="s">
+      <c r="U8" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="68" t="s">
+      <c r="V8" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="37" t="s">
+      <c r="W8" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="W8" s="37" t="s">
+      <c r="X8" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="X8" s="37" t="s">
+      <c r="Y8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="Y8" s="37" t="s">
+      <c r="Z8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="55" t="s">
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AB8" s="55" t="s">
+      <c r="AC8" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AC8" s="55" t="s">
+      <c r="AD8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AD8" s="55" t="s">
+      <c r="AE8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AE8" s="55" t="s">
+      <c r="AF8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AF8" s="55" t="s">
+      <c r="AG8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="55" t="s">
+      <c r="AH8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AH8" s="55" t="s">
+      <c r="AI8" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>46</v>
       </c>
@@ -10523,72 +10562,73 @@
         <v>95</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="73"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="73"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="86" t="s">
+      <c r="Q9" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="86" t="s">
+      <c r="R9" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86" t="s">
+      <c r="S9" s="86"/>
+      <c r="T9" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="T9" s="85" t="s">
+      <c r="U9" s="85" t="s">
         <v>48</v>
-      </c>
-      <c r="U9" s="85" t="s">
-        <v>33</v>
       </c>
       <c r="V9" s="85" t="s">
         <v>33</v>
       </c>
       <c r="W9" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="X9" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="X9" s="85" t="s">
+      <c r="Y9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="Y9" s="85" t="s">
+      <c r="Z9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="57" t="s">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="AB9" s="57" t="s">
+      <c r="AC9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="57" t="s">
+      <c r="AD9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AD9" s="57" t="s">
+      <c r="AE9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AE9" s="57" t="s">
+      <c r="AF9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="57" t="s">
+      <c r="AG9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AG9" s="57" t="s">
+      <c r="AH9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AH9" s="57" t="s">
+      <c r="AI9" s="57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
@@ -10596,42 +10636,43 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="74"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="31"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="84"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="84"/>
-      <c r="P10" s="38"/>
+      <c r="P10" s="84"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
-      <c r="T10" s="84"/>
+      <c r="T10" s="38"/>
       <c r="U10" s="84"/>
       <c r="V10" s="84"/>
       <c r="W10" s="84"/>
-      <c r="X10" s="84" t="s">
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="63" t="s">
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AB10" s="64"/>
       <c r="AC10" s="64"/>
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
       <c r="AF10" s="64"/>
       <c r="AG10" s="64"/>
       <c r="AH10" s="64"/>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI10" s="64"/>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B11" s="105" t="str">
-        <f>AB11</f>
+        <f>AC11</f>
         <v>FTE-TRDHH2</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -10642,66 +10683,67 @@
         <v>179</v>
       </c>
       <c r="F11" s="79"/>
-      <c r="G11" s="75" t="s">
+      <c r="G11" s="79"/>
+      <c r="H11" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="79">
+      <c r="I11" s="75"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="79">
         <v>1</v>
       </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="82"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="101"/>
       <c r="N11" s="82"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="79">
+      <c r="O11" s="82"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79">
         <v>1</v>
       </c>
-      <c r="R11" s="79"/>
       <c r="S11" s="79"/>
       <c r="T11" s="79"/>
       <c r="U11" s="79"/>
       <c r="V11" s="79"/>
-      <c r="W11" s="100">
+      <c r="W11" s="79"/>
+      <c r="X11" s="100">
         <v>3.4</v>
       </c>
-      <c r="X11" s="79">
+      <c r="Y11" s="79">
         <v>20</v>
       </c>
-      <c r="Y11" s="79">
+      <c r="Z11" s="79">
         <v>1</v>
       </c>
-      <c r="Z11"/>
-      <c r="AA11" s="60" t="s">
+      <c r="AA11"/>
+      <c r="AB11" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="AB11" s="54" t="s">
+      <c r="AC11" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="AC11" s="54" t="s">
+      <c r="AD11" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="AD11" s="61" t="s">
+      <c r="AE11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AE11" s="61" t="s">
+      <c r="AF11" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AF11" s="61" t="s">
+      <c r="AG11" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AG11" s="61" t="s">
+      <c r="AH11" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AH11" s="59" t="s">
+      <c r="AI11" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B12" s="105" t="str">
-        <f>AB12</f>
+        <f>AC12</f>
         <v>TRAFASTELC1</v>
       </c>
       <c r="C12" t="s">
@@ -10712,68 +10754,69 @@
         <v>183</v>
       </c>
       <c r="F12" s="79"/>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="79"/>
+      <c r="H12" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="79">
+      <c r="I12" s="75"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="79">
         <v>1</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="101">
+      <c r="L12" s="80"/>
+      <c r="M12" s="101">
         <v>2015</v>
       </c>
-      <c r="M12" s="82"/>
       <c r="N12" s="82"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="79">
+      <c r="O12" s="82"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="79">
         <v>1</v>
       </c>
-      <c r="R12" s="79"/>
       <c r="S12" s="79"/>
       <c r="T12" s="79"/>
       <c r="U12" s="79"/>
       <c r="V12" s="79"/>
-      <c r="W12" s="100">
+      <c r="W12" s="79"/>
+      <c r="X12" s="100">
         <v>2</v>
       </c>
-      <c r="X12" s="79">
+      <c r="Y12" s="79">
         <v>20</v>
       </c>
-      <c r="Y12" s="79">
+      <c r="Z12" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="Z12"/>
-      <c r="AA12" s="60" t="s">
+      <c r="AA12"/>
+      <c r="AB12" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" s="54" t="s">
+      <c r="AC12" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="AC12" s="54" t="s">
+      <c r="AD12" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AD12" s="61" t="s">
+      <c r="AE12" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AE12" s="61" t="s">
+      <c r="AF12" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AF12" s="61" t="s">
+      <c r="AG12" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AG12" s="61" t="s">
+      <c r="AH12" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AH12" s="59" t="s">
+      <c r="AI12" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B13" s="105" t="str">
-        <f>AB13</f>
+        <f>AC13</f>
         <v>TRASLOWELC1</v>
       </c>
       <c r="C13" t="s">
@@ -10784,60 +10827,61 @@
         <v>186</v>
       </c>
       <c r="F13" s="79"/>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="79"/>
+      <c r="H13" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="79">
+      <c r="I13" s="75"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="79">
         <v>1</v>
       </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="82"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="101"/>
       <c r="N13" s="82"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="79">
+      <c r="O13" s="82"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="79">
         <v>1</v>
       </c>
-      <c r="R13" s="79"/>
       <c r="S13" s="79"/>
       <c r="T13" s="79"/>
       <c r="U13" s="79"/>
       <c r="V13" s="79"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79">
+      <c r="W13" s="79"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="Z13"/>
-      <c r="AA13" s="60" t="s">
+      <c r="AA13"/>
+      <c r="AB13" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="AB13" s="54" t="s">
+      <c r="AC13" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="AC13" s="54" t="s">
+      <c r="AD13" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" s="61" t="s">
+      <c r="AE13" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AE13" s="61" t="s">
+      <c r="AF13" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61" t="s">
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="AH13" s="59" t="s">
+      <c r="AI13" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B14" s="105" t="str">
-        <f>AB14</f>
+        <f>AC14</f>
         <v>TRASIFTELC1</v>
       </c>
       <c r="C14" t="s">
@@ -10848,164 +10892,167 @@
         <v>183</v>
       </c>
       <c r="F14" s="79"/>
-      <c r="G14" s="75" t="s">
+      <c r="G14" s="79"/>
+      <c r="H14" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="82">
+      <c r="I14" s="75"/>
+      <c r="J14" s="82">
         <v>0.2</v>
       </c>
-      <c r="J14" s="79">
+      <c r="K14" s="79">
         <v>0.3</v>
       </c>
-      <c r="K14" s="100">
+      <c r="L14" s="100">
         <v>0.4</v>
       </c>
-      <c r="L14" s="101">
+      <c r="M14" s="101">
         <v>2020</v>
       </c>
-      <c r="M14" s="82"/>
       <c r="N14" s="82"/>
-      <c r="O14" s="78"/>
+      <c r="O14" s="82"/>
       <c r="P14" s="78"/>
-      <c r="Q14" s="79">
+      <c r="Q14" s="78"/>
+      <c r="R14" s="79">
         <v>1</v>
       </c>
-      <c r="R14" s="79"/>
       <c r="S14" s="79"/>
       <c r="T14" s="79"/>
       <c r="U14" s="79"/>
       <c r="V14" s="79"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="79">
+      <c r="W14" s="79"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="79">
         <v>20</v>
       </c>
-      <c r="Y14" s="79">
+      <c r="Z14" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="Z14"/>
-      <c r="AA14" s="60" t="s">
+      <c r="AA14"/>
+      <c r="AB14" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="AB14" s="54" t="s">
+      <c r="AC14" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="AC14" s="54" t="s">
+      <c r="AD14" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="AD14" s="61" t="s">
+      <c r="AE14" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AE14" s="61" t="s">
+      <c r="AF14" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AF14" s="61" t="s">
+      <c r="AG14" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="AG14" s="61" t="s">
+      <c r="AH14" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="AH14" s="59" t="s">
+      <c r="AI14" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B15" s="105"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
         <v>186</v>
       </c>
       <c r="F15" s="79"/>
-      <c r="G15" s="75" t="s">
+      <c r="G15" s="79"/>
+      <c r="H15" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="82">
+      <c r="I15" s="75"/>
+      <c r="J15" s="82">
         <v>0.3</v>
       </c>
-      <c r="J15" s="79">
+      <c r="K15" s="79">
         <v>0.4</v>
       </c>
-      <c r="K15" s="100">
+      <c r="L15" s="100">
         <v>0.6</v>
       </c>
-      <c r="L15" s="101"/>
-      <c r="M15" s="82"/>
+      <c r="M15" s="101"/>
       <c r="N15" s="82"/>
-      <c r="O15" s="78"/>
+      <c r="O15" s="82"/>
       <c r="P15" s="78"/>
-      <c r="Q15" s="79"/>
+      <c r="Q15" s="78"/>
       <c r="R15" s="79"/>
       <c r="S15" s="79"/>
       <c r="T15" s="79"/>
       <c r="U15" s="79"/>
       <c r="V15" s="79"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="78"/>
       <c r="Y15" s="79"/>
-      <c r="Z15"/>
-      <c r="AA15" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z15" s="79"/>
+      <c r="AA15"/>
       <c r="AB15" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="106"/>
+      <c r="AC15" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="108"/>
       <c r="AE15" s="106"/>
       <c r="AF15" s="106"/>
       <c r="AG15" s="106"/>
       <c r="AH15" s="106"/>
-    </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI15" s="106"/>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B16" s="105"/>
       <c r="D16" s="79" t="s">
         <v>151</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="79"/>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="79"/>
+      <c r="H16" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="82">
+      <c r="I16" s="75"/>
+      <c r="J16" s="82">
         <v>0.15</v>
       </c>
-      <c r="J16" s="79">
+      <c r="K16" s="79">
         <v>0.2</v>
       </c>
-      <c r="K16" s="100">
+      <c r="L16" s="100">
         <v>0.25</v>
       </c>
-      <c r="L16" s="101"/>
-      <c r="M16" s="82"/>
+      <c r="M16" s="101"/>
       <c r="N16" s="82"/>
-      <c r="O16" s="78"/>
+      <c r="O16" s="82"/>
       <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
+      <c r="Q16" s="78"/>
       <c r="R16" s="79"/>
       <c r="S16" s="79"/>
       <c r="T16" s="79"/>
       <c r="U16" s="79"/>
       <c r="V16" s="79"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="78"/>
       <c r="Y16" s="79"/>
-      <c r="Z16"/>
-      <c r="AA16" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z16" s="79"/>
+      <c r="AA16"/>
       <c r="AB16" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="106"/>
+      <c r="AC16" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD16" s="108"/>
       <c r="AE16" s="106"/>
       <c r="AF16" s="106"/>
       <c r="AG16" s="106"/>
       <c r="AH16" s="106"/>
-    </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI16" s="106"/>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" s="105"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -11013,50 +11060,51 @@
         <v>183</v>
       </c>
       <c r="F17" s="79"/>
-      <c r="G17" s="75" t="s">
+      <c r="G17" s="79"/>
+      <c r="H17" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="75"/>
-      <c r="I17" s="82">
+      <c r="I17" s="75"/>
+      <c r="J17" s="82">
         <v>0.1</v>
       </c>
-      <c r="J17" s="79">
+      <c r="K17" s="79">
         <v>0.2</v>
       </c>
-      <c r="K17" s="100">
+      <c r="L17" s="100">
         <v>0.3</v>
       </c>
-      <c r="L17" s="101"/>
-      <c r="M17" s="82"/>
+      <c r="M17" s="101"/>
       <c r="N17" s="82"/>
-      <c r="O17" s="78"/>
+      <c r="O17" s="82"/>
       <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
+      <c r="Q17" s="78"/>
       <c r="R17" s="79"/>
       <c r="S17" s="79"/>
       <c r="T17" s="79"/>
       <c r="U17" s="79"/>
       <c r="V17" s="79"/>
-      <c r="W17" s="100">
+      <c r="W17" s="79"/>
+      <c r="X17" s="100">
         <v>6.4</v>
       </c>
-      <c r="X17" s="79"/>
       <c r="Y17" s="79"/>
-      <c r="Z17"/>
-      <c r="AA17" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z17" s="79"/>
+      <c r="AA17"/>
       <c r="AB17" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="106"/>
+      <c r="AC17" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD17" s="108"/>
       <c r="AE17" s="106"/>
       <c r="AF17" s="106"/>
       <c r="AG17" s="106"/>
       <c r="AH17" s="106"/>
-    </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI17" s="106"/>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B18" s="105"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -11064,50 +11112,51 @@
         <v>186</v>
       </c>
       <c r="F18" s="79"/>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="79"/>
+      <c r="H18" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="82">
+      <c r="I18" s="75"/>
+      <c r="J18" s="82">
         <v>0.2</v>
       </c>
-      <c r="J18" s="79">
+      <c r="K18" s="79">
         <v>0.3</v>
       </c>
-      <c r="K18" s="100">
+      <c r="L18" s="100">
         <v>0.35</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="82"/>
+      <c r="M18" s="101"/>
       <c r="N18" s="82"/>
-      <c r="O18" s="78"/>
+      <c r="O18" s="82"/>
       <c r="P18" s="78"/>
-      <c r="Q18" s="79"/>
+      <c r="Q18" s="78"/>
       <c r="R18" s="79"/>
       <c r="S18" s="79"/>
       <c r="T18" s="79"/>
       <c r="U18" s="79"/>
       <c r="V18" s="79"/>
-      <c r="W18" s="100">
+      <c r="W18" s="79"/>
+      <c r="X18" s="100">
         <v>6.4</v>
       </c>
-      <c r="X18" s="79"/>
       <c r="Y18" s="79"/>
-      <c r="Z18"/>
-      <c r="AA18" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z18" s="79"/>
+      <c r="AA18"/>
       <c r="AB18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="106"/>
+      <c r="AC18" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD18" s="108"/>
       <c r="AE18" s="106"/>
       <c r="AF18" s="106"/>
       <c r="AG18" s="106"/>
       <c r="AH18" s="106"/>
-    </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI18" s="106"/>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B19" s="105"/>
       <c r="C19" t="s">
         <v>182</v>
@@ -11115,50 +11164,51 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="79"/>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="79"/>
+      <c r="H19" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="82">
+      <c r="I19" s="75"/>
+      <c r="J19" s="82">
         <v>2</v>
       </c>
-      <c r="J19" s="79">
+      <c r="K19" s="79">
         <v>1.5</v>
       </c>
-      <c r="K19" s="100">
+      <c r="L19" s="100">
         <v>1</v>
       </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="82"/>
+      <c r="M19" s="101"/>
       <c r="N19" s="82"/>
-      <c r="O19" s="78"/>
+      <c r="O19" s="82"/>
       <c r="P19" s="78"/>
-      <c r="Q19" s="79"/>
+      <c r="Q19" s="78"/>
       <c r="R19" s="79"/>
       <c r="S19" s="79"/>
       <c r="T19" s="79"/>
       <c r="U19" s="79"/>
-      <c r="V19" s="79">
+      <c r="V19" s="79"/>
+      <c r="W19" s="79">
         <v>2</v>
       </c>
-      <c r="W19" s="100"/>
-      <c r="X19" s="79"/>
+      <c r="X19" s="100"/>
       <c r="Y19" s="79"/>
-      <c r="Z19"/>
-      <c r="AA19" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z19" s="79"/>
+      <c r="AA19"/>
       <c r="AB19" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="108"/>
-      <c r="AD19" s="106"/>
+      <c r="AC19" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD19" s="108"/>
       <c r="AE19" s="106"/>
       <c r="AF19" s="106"/>
       <c r="AG19" s="106"/>
       <c r="AH19" s="106"/>
-    </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI19" s="106"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B20" s="105"/>
       <c r="C20" t="s">
         <v>40</v>
@@ -11168,54 +11218,55 @@
         <v>40</v>
       </c>
       <c r="F20" s="79"/>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="79"/>
+      <c r="H20" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="82">
+      <c r="I20" s="75"/>
+      <c r="J20" s="82">
         <v>5.4</v>
       </c>
-      <c r="J20" s="100">
+      <c r="K20" s="100">
         <v>4.8</v>
       </c>
-      <c r="K20" s="100">
+      <c r="L20" s="100">
         <v>4</v>
       </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82">
+      <c r="M20" s="101"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82">
         <v>2</v>
       </c>
-      <c r="O20" s="78">
+      <c r="P20" s="78">
         <v>0.95</v>
       </c>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
+      <c r="Q20" s="78"/>
       <c r="R20" s="79"/>
       <c r="S20" s="79"/>
       <c r="T20" s="79"/>
       <c r="U20" s="79"/>
       <c r="V20" s="79"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="100"/>
       <c r="Y20" s="79"/>
-      <c r="Z20"/>
-      <c r="AA20" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z20" s="79"/>
+      <c r="AA20"/>
       <c r="AB20" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="106"/>
+      <c r="AC20" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD20" s="108"/>
       <c r="AE20" s="106"/>
       <c r="AF20" s="106"/>
       <c r="AG20" s="106"/>
       <c r="AH20" s="106"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI20" s="106"/>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="105" t="str">
-        <f>AB21</f>
+        <f>AC21</f>
         <v>TRARAGGELC1</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -11228,58 +11279,59 @@
       <c r="F21" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="79"/>
+      <c r="H21" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="79">
+      <c r="I21" s="75"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="79">
         <v>1</v>
       </c>
-      <c r="K21" s="100"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="82"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="101"/>
       <c r="N21" s="82"/>
-      <c r="O21" s="78"/>
+      <c r="O21" s="82"/>
       <c r="P21" s="78"/>
-      <c r="Q21" s="79">
+      <c r="Q21" s="78"/>
+      <c r="R21" s="79">
         <v>1</v>
       </c>
-      <c r="R21" s="79"/>
       <c r="S21" s="79"/>
       <c r="T21" s="79"/>
       <c r="U21" s="79"/>
       <c r="V21" s="79"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="100"/>
       <c r="Y21" s="79"/>
-      <c r="Z21"/>
-      <c r="AA21" s="60" t="s">
+      <c r="Z21" s="79"/>
+      <c r="AA21"/>
+      <c r="AB21" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="AB21" s="105" t="s">
+      <c r="AC21" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="AC21" s="54" t="s">
+      <c r="AD21" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AD21" s="61" t="s">
+      <c r="AE21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AE21" s="61" t="s">
+      <c r="AF21" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AF21" s="61" t="s">
+      <c r="AG21" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AG21" s="61" t="s">
+      <c r="AH21" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="AH21" s="59" t="s">
+      <c r="AI21" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" s="105"/>
       <c r="C22" s="14" t="s">
         <v>186</v>
@@ -11289,50 +11341,53 @@
       <c r="F22" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="79" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="82">
+      <c r="I22" s="75"/>
+      <c r="J22" s="82">
         <v>0.85</v>
       </c>
-      <c r="J22" s="79">
+      <c r="K22" s="79">
         <v>0.8</v>
       </c>
-      <c r="K22" s="78">
+      <c r="L22" s="78">
         <v>0.75</v>
       </c>
-      <c r="L22" s="101"/>
-      <c r="M22" s="82"/>
+      <c r="M22" s="101"/>
       <c r="N22" s="82"/>
-      <c r="O22" s="78"/>
+      <c r="O22" s="82"/>
       <c r="P22" s="78"/>
-      <c r="Q22" s="79"/>
+      <c r="Q22" s="78"/>
       <c r="R22" s="79"/>
       <c r="S22" s="79"/>
       <c r="T22" s="79"/>
       <c r="U22" s="79"/>
       <c r="V22" s="79"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="100"/>
       <c r="Y22" s="79"/>
-      <c r="Z22"/>
-      <c r="AA22" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z22" s="79"/>
+      <c r="AA22"/>
       <c r="AB22" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="106"/>
+      <c r="AC22" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD22" s="108"/>
       <c r="AE22" s="106"/>
       <c r="AF22" s="106"/>
       <c r="AG22" s="106"/>
       <c r="AH22" s="106"/>
-    </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI22" s="106"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23" s="105" t="str">
-        <f>AB23</f>
+        <f>AC23</f>
         <v>TCANELC3</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -11345,76 +11400,77 @@
       <c r="F23" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="75" t="s">
+      <c r="G23" s="79"/>
+      <c r="H23" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="75"/>
-      <c r="I23" s="82">
+      <c r="I23" s="75"/>
+      <c r="J23" s="82">
         <v>1.8</v>
       </c>
-      <c r="J23" s="79">
+      <c r="K23" s="79">
         <v>1.9</v>
       </c>
-      <c r="K23" s="100">
+      <c r="L23" s="100">
         <v>2.1</v>
       </c>
-      <c r="L23" s="101">
+      <c r="M23" s="101">
         <v>2020</v>
       </c>
-      <c r="M23" s="82"/>
       <c r="N23" s="82"/>
-      <c r="O23" s="78">
+      <c r="O23" s="82"/>
+      <c r="P23" s="78">
         <v>1.3</v>
       </c>
-      <c r="P23" s="80">
+      <c r="Q23" s="80">
         <v>15</v>
       </c>
-      <c r="Q23" s="78"/>
       <c r="R23" s="78"/>
       <c r="S23" s="78"/>
-      <c r="T23" s="79">
+      <c r="T23" s="78"/>
+      <c r="U23" s="79">
         <v>25</v>
       </c>
-      <c r="U23" s="79">
+      <c r="V23" s="79">
         <v>0.15</v>
       </c>
-      <c r="V23" s="79"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="79">
+      <c r="W23" s="79"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="79">
         <v>12</v>
       </c>
-      <c r="Y23" s="79">
+      <c r="Z23" s="79">
         <v>1E-3</v>
       </c>
-      <c r="Z23"/>
-      <c r="AA23" s="60" t="s">
+      <c r="AA23"/>
+      <c r="AB23" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AB23" s="54" t="s">
+      <c r="AC23" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="AC23" s="54" t="s">
+      <c r="AD23" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="AD23" s="61" t="s">
+      <c r="AE23" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AE23" s="61" t="s">
+      <c r="AF23" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AF23" s="61" t="s">
+      <c r="AG23" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AG23" s="61" t="s">
+      <c r="AH23" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="AH23" s="59" t="s">
+      <c r="AI23" s="59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24" s="105" t="str">
-        <f>AB24</f>
+        <f>AC24</f>
         <v>TCANELC4</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -11427,69 +11483,70 @@
       <c r="F24" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="75" t="s">
+      <c r="G24" s="79"/>
+      <c r="H24" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="82">
+      <c r="I24" s="75"/>
+      <c r="J24" s="82">
         <v>1.25</v>
       </c>
-      <c r="J24" s="79">
+      <c r="K24" s="79">
         <v>1.4</v>
       </c>
-      <c r="K24" s="78">
+      <c r="L24" s="78">
         <v>1.55</v>
       </c>
-      <c r="L24" s="101">
+      <c r="M24" s="101">
         <v>2020</v>
       </c>
-      <c r="M24" s="82"/>
       <c r="N24" s="82"/>
-      <c r="O24" s="78">
+      <c r="O24" s="82"/>
+      <c r="P24" s="78">
         <v>1.3</v>
       </c>
-      <c r="P24" s="80">
+      <c r="Q24" s="80">
         <v>15</v>
       </c>
-      <c r="T24" s="69">
+      <c r="U24" s="69">
         <v>23</v>
       </c>
-      <c r="U24" s="79">
+      <c r="V24" s="79">
         <v>0.15</v>
       </c>
-      <c r="X24" s="79">
+      <c r="Y24" s="79">
         <v>12</v>
       </c>
-      <c r="Y24" s="79">
+      <c r="Z24" s="79">
         <v>1E-3</v>
       </c>
-      <c r="Z24"/>
-      <c r="AA24" s="60" t="s">
+      <c r="AA24"/>
+      <c r="AB24" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AB24" s="54" t="s">
+      <c r="AC24" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="AC24" s="54" t="s">
+      <c r="AD24" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="AD24" s="61" t="s">
+      <c r="AE24" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AE24" s="61" t="s">
+      <c r="AF24" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AF24" s="61" t="s">
+      <c r="AG24" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AG24" s="61" t="s">
+      <c r="AH24" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="AH24" s="59" t="s">
+      <c r="AI24" s="59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25" s="105"/>
       <c r="C25" s="14" t="s">
         <v>190</v>
@@ -11499,45 +11556,46 @@
       <c r="F25" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="79"/>
+      <c r="H25" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="H25" s="75"/>
-      <c r="I25" s="82">
+      <c r="I25" s="75"/>
+      <c r="J25" s="82">
         <v>0.4</v>
       </c>
-      <c r="J25" s="79">
+      <c r="K25" s="79">
         <v>0.35</v>
       </c>
-      <c r="K25" s="100">
+      <c r="L25" s="100">
         <v>0.3</v>
       </c>
-      <c r="L25" s="101"/>
-      <c r="M25" s="82"/>
+      <c r="M25" s="101"/>
       <c r="N25" s="82"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="80"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="79"/>
-      <c r="X25" s="79"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="80"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="79"/>
       <c r="Y25" s="79"/>
-      <c r="Z25"/>
-      <c r="AA25" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z25" s="79"/>
+      <c r="AA25"/>
       <c r="AB25" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC25" s="108"/>
-      <c r="AD25" s="106"/>
+      <c r="AC25" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD25" s="108"/>
       <c r="AE25" s="106"/>
       <c r="AF25" s="106"/>
       <c r="AG25" s="106"/>
       <c r="AH25" s="106"/>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI25" s="106"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="105" t="str">
-        <f>AB26</f>
+        <f>AC26</f>
         <v>TCANELC9</v>
       </c>
       <c r="C26" t="s">
@@ -11550,76 +11608,74 @@
       <c r="F26" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="75" t="s">
+      <c r="G26" s="79"/>
+      <c r="H26" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="H26" s="75"/>
-      <c r="I26" s="82">
-        <f>I23</f>
+      <c r="I26" s="75"/>
+      <c r="J26" s="82">
         <v>1.8</v>
       </c>
-      <c r="J26" s="79">
-        <f>J23</f>
+      <c r="K26" s="79">
         <v>1.9</v>
       </c>
-      <c r="K26" s="79">
-        <f>K23</f>
+      <c r="L26" s="79">
         <v>2.1</v>
       </c>
-      <c r="L26" s="101">
+      <c r="M26" s="101">
         <v>2020</v>
       </c>
-      <c r="M26" s="82"/>
       <c r="N26" s="82"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="69">
+      <c r="O26" s="82"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="69">
         <v>1</v>
       </c>
-      <c r="R26" s="69"/>
-      <c r="S26">
+      <c r="S26" s="69"/>
+      <c r="T26">
         <f>3.6*8.76*60/24</f>
         <v>78.84</v>
       </c>
-      <c r="T26" s="79">
+      <c r="U26" s="79">
         <v>25</v>
       </c>
-      <c r="U26" s="79">
+      <c r="V26" s="79">
         <v>0.15</v>
       </c>
-      <c r="X26" s="79">
+      <c r="Y26" s="79">
         <v>12</v>
       </c>
-      <c r="Y26" s="79">
+      <c r="Z26" s="79">
         <v>1E-3</v>
       </c>
-      <c r="Z26"/>
-      <c r="AA26" s="60" t="s">
+      <c r="AA26"/>
+      <c r="AB26" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="AB26" s="54" t="s">
+      <c r="AC26" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="AC26" s="54" t="s">
+      <c r="AD26" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="AD26" s="61" t="s">
+      <c r="AE26" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AE26" s="61" t="s">
+      <c r="AF26" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AF26" s="61" t="s">
+      <c r="AG26" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="AG26" s="61" t="s">
+      <c r="AH26" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="AH26" s="59" t="s">
+      <c r="AI26" s="59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B27" s="105"/>
       <c r="C27" t="s">
         <v>40</v>
@@ -11631,48 +11687,46 @@
       <c r="F27" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="79"/>
+      <c r="H27" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="83">
-        <f>1/I26</f>
+      <c r="I27" s="75"/>
+      <c r="J27" s="83">
         <v>0.55555555555555558</v>
       </c>
-      <c r="J27" s="78">
-        <f>1/J26</f>
+      <c r="K27" s="78">
         <v>0.52631578947368418</v>
       </c>
-      <c r="K27" s="78">
-        <f>1/K26</f>
+      <c r="L27" s="78">
         <v>0.47619047619047616</v>
       </c>
-      <c r="L27" s="101"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82">
+      <c r="M27" s="101"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82">
         <v>2</v>
       </c>
-      <c r="O27" s="78"/>
-      <c r="P27" s="80"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="79"/>
-      <c r="X27" s="79"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="80"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="79"/>
       <c r="Y27" s="79"/>
-      <c r="Z27"/>
-      <c r="AA27" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z27" s="79"/>
+      <c r="AA27"/>
       <c r="AB27" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC27" s="108"/>
-      <c r="AD27" s="106"/>
+      <c r="AC27" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD27" s="108"/>
       <c r="AE27" s="106"/>
       <c r="AF27" s="106"/>
       <c r="AG27" s="106"/>
       <c r="AH27" s="106"/>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI27" s="106"/>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" s="105"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -11682,50 +11736,48 @@
       <c r="F28" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="79"/>
+      <c r="H28" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="82">
-        <f>I20</f>
+      <c r="I28" s="75"/>
+      <c r="J28" s="82">
         <v>5.4</v>
       </c>
-      <c r="J28" s="100">
-        <f>J20</f>
+      <c r="K28" s="100">
         <v>4.8</v>
       </c>
-      <c r="K28" s="100">
-        <f>K20</f>
+      <c r="L28" s="100">
         <v>4</v>
       </c>
-      <c r="L28" s="101"/>
-      <c r="M28" s="82"/>
+      <c r="M28" s="101"/>
       <c r="N28" s="82"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="80"/>
-      <c r="S28" s="69">
-        <f>S26*8</f>
+      <c r="O28" s="82"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="80"/>
+      <c r="T28" s="69">
+        <f>T26*8</f>
         <v>630.72</v>
       </c>
-      <c r="T28" s="69"/>
-      <c r="U28" s="79"/>
-      <c r="X28" s="79"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="79"/>
       <c r="Y28" s="79"/>
-      <c r="Z28"/>
-      <c r="AA28" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z28" s="79"/>
+      <c r="AA28"/>
       <c r="AB28" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="106"/>
+      <c r="AC28" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD28" s="108"/>
       <c r="AE28" s="106"/>
       <c r="AF28" s="106"/>
       <c r="AG28" s="106"/>
       <c r="AH28" s="106"/>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI28" s="106"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B29" s="105"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -11733,40 +11785,41 @@
         <v>64</v>
       </c>
       <c r="F29" s="79"/>
-      <c r="G29" s="75"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="75"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="78"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="78"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="82"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="101"/>
       <c r="N29" s="82"/>
-      <c r="O29" s="78">
+      <c r="O29" s="82"/>
+      <c r="P29" s="78">
         <v>1.3</v>
       </c>
-      <c r="P29" s="80"/>
-      <c r="R29" s="69">
+      <c r="Q29" s="80"/>
+      <c r="S29" s="69">
         <v>15</v>
       </c>
-      <c r="T29" s="69"/>
-      <c r="U29" s="79"/>
-      <c r="X29" s="79"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="79"/>
       <c r="Y29" s="79"/>
-      <c r="Z29"/>
-      <c r="AA29" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z29" s="79"/>
+      <c r="AA29"/>
       <c r="AB29" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="106"/>
+      <c r="AC29" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD29" s="108"/>
       <c r="AE29" s="106"/>
       <c r="AF29" s="106"/>
       <c r="AG29" s="106"/>
       <c r="AH29" s="106"/>
-    </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI29" s="106"/>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B30" s="105"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -11776,43 +11829,44 @@
       <c r="F30" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="131">
+      <c r="G30" s="79"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="131">
         <v>0</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="78"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="78"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="82"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="101"/>
       <c r="N30" s="82"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="80"/>
-      <c r="R30" s="69">
-        <v>-1</v>
-      </c>
+      <c r="O30" s="82"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="80"/>
       <c r="S30" s="69">
         <v>-1</v>
       </c>
-      <c r="T30" s="69"/>
-      <c r="U30" s="79"/>
-      <c r="X30" s="79"/>
+      <c r="T30" s="69">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="69"/>
+      <c r="V30" s="79"/>
       <c r="Y30" s="79"/>
-      <c r="Z30"/>
-      <c r="AA30" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z30" s="79"/>
+      <c r="AA30"/>
       <c r="AB30" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="106"/>
+      <c r="AC30" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD30" s="108"/>
       <c r="AE30" s="106"/>
       <c r="AF30" s="106"/>
       <c r="AG30" s="106"/>
       <c r="AH30" s="106"/>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI30" s="106"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B31" s="105"/>
       <c r="C31" s="14" t="s">
         <v>276</v>
@@ -11824,41 +11878,42 @@
       <c r="F31" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="16"/>
       <c r="K31" s="78"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="82">
+      <c r="L31" s="78"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="82">
         <v>1</v>
       </c>
-      <c r="N31" s="82"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="80"/>
-      <c r="R31" s="69"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="80"/>
       <c r="S31" s="69"/>
       <c r="T31" s="69"/>
-      <c r="U31" s="79"/>
-      <c r="X31" s="79"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="79"/>
       <c r="Y31" s="79"/>
-      <c r="Z31"/>
-      <c r="AA31" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z31" s="79"/>
+      <c r="AA31"/>
       <c r="AB31" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AC31" s="108"/>
-      <c r="AD31" s="106"/>
+      <c r="AC31" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD31" s="108"/>
       <c r="AE31" s="106"/>
       <c r="AF31" s="106"/>
       <c r="AG31" s="106"/>
       <c r="AH31" s="106"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI31" s="106"/>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B32" s="105" t="str">
-        <f>AB32</f>
+        <f>AC32</f>
         <v>TCANHYD1</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -11868,128 +11923,131 @@
         <v>64</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="75" t="s">
+      <c r="G32" s="33"/>
+      <c r="H32" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="75"/>
-      <c r="I32" s="16">
+      <c r="I32" s="75"/>
+      <c r="J32" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J32" s="79">
+      <c r="K32" s="79">
         <v>1.3</v>
       </c>
-      <c r="K32" s="78">
+      <c r="L32" s="78">
         <v>1.45</v>
       </c>
-      <c r="L32" s="101">
+      <c r="M32" s="101">
         <v>2020</v>
       </c>
-      <c r="M32" s="82"/>
       <c r="N32" s="82"/>
-      <c r="O32" s="78">
+      <c r="O32" s="82"/>
+      <c r="P32" s="78">
         <v>1.3</v>
       </c>
-      <c r="P32" s="80">
+      <c r="Q32" s="80">
         <v>15</v>
       </c>
-      <c r="T32" s="69">
+      <c r="U32" s="69">
         <v>23</v>
       </c>
-      <c r="U32" s="79">
+      <c r="V32" s="79">
         <v>0.15</v>
       </c>
-      <c r="X32" s="79">
+      <c r="Y32" s="79">
         <v>12</v>
       </c>
-      <c r="Y32" s="79">
+      <c r="Z32" s="79">
         <v>1E-3</v>
       </c>
-      <c r="Z32"/>
-      <c r="AA32" s="60" t="s">
+      <c r="AA32"/>
+      <c r="AB32" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AB32" s="54" t="s">
+      <c r="AC32" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="AC32" s="54" t="s">
+      <c r="AD32" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="AD32" s="61" t="s">
+      <c r="AE32" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AE32" s="61" t="s">
+      <c r="AF32" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AF32" s="61" t="s">
+      <c r="AG32" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="AG32" s="61" t="s">
+      <c r="AH32" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="AH32" s="59" t="s">
+      <c r="AI32" s="59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
       <c r="F33" s="33"/>
-      <c r="G33" s="32"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="33"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="33"/>
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
       <c r="O33" s="33"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="54"/>
+      <c r="P33" s="33"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33"/>
+      <c r="AB33" s="59"/>
       <c r="AC33" s="54"/>
-      <c r="AD33" s="61"/>
+      <c r="AD33" s="54"/>
       <c r="AE33" s="61"/>
       <c r="AF33" s="61"/>
       <c r="AG33" s="61"/>
-      <c r="AH33" s="59"/>
-    </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AH33" s="61"/>
+      <c r="AI33" s="59"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
       <c r="F34" s="33"/>
-      <c r="G34" s="32"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
       <c r="O34" s="33"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="54"/>
+      <c r="P34" s="33"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34"/>
+      <c r="AB34" s="59"/>
       <c r="AC34" s="54"/>
-      <c r="AD34" s="61"/>
+      <c r="AD34" s="54"/>
       <c r="AE34" s="61"/>
       <c r="AF34" s="61"/>
       <c r="AG34" s="61"/>
-      <c r="AH34" s="59"/>
-    </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AH34" s="61"/>
+      <c r="AI34" s="59"/>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="39"/>
       <c r="C35" s="51"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
       <c r="F35" s="47"/>
-      <c r="G35" s="49"/>
+      <c r="G35" s="47"/>
       <c r="H35" s="49"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="47"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
-      <c r="P35" s="39"/>
+      <c r="P35" s="47"/>
       <c r="Q35" s="39"/>
       <c r="R35" s="39"/>
       <c r="S35" s="39"/>
@@ -11998,95 +12056,97 @@
       <c r="V35" s="39"/>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="66"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35"/>
+      <c r="AB35" s="65"/>
       <c r="AC35" s="66"/>
-      <c r="AD35" s="67"/>
+      <c r="AD35" s="66"/>
       <c r="AE35" s="67"/>
       <c r="AF35" s="67"/>
       <c r="AG35" s="67"/>
-      <c r="AH35" s="65"/>
-    </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AH35" s="67"/>
+      <c r="AI35" s="65"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="F36" s="33"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
       <c r="O36" s="33"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="54"/>
+      <c r="P36" s="33"/>
+      <c r="AB36" s="59"/>
       <c r="AC36" s="54"/>
-      <c r="AD36" s="61"/>
+      <c r="AD36" s="54"/>
       <c r="AE36" s="61"/>
       <c r="AF36" s="61"/>
       <c r="AG36" s="61"/>
-      <c r="AH36" s="59"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AH36" s="61"/>
+      <c r="AI36" s="59"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B38" s="112" t="s">
         <v>194</v>
       </c>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
-      <c r="I38" s="112" t="s">
+      <c r="J38" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="J38" s="112"/>
       <c r="K38" s="112"/>
       <c r="L38" s="112"/>
       <c r="M38" s="112"/>
       <c r="N38" s="112"/>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AA39" s="53" t="s">
+      <c r="O38" s="112"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AB39" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AB39" s="54"/>
       <c r="AC39" s="54"/>
       <c r="AD39" s="54"/>
       <c r="AE39" s="54"/>
       <c r="AF39" s="54"/>
       <c r="AG39" s="54"/>
       <c r="AH39" s="54"/>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI39" s="54"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="C40" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="L40" s="88" t="s">
+      <c r="M40" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="AA40" s="55" t="s">
+      <c r="AB40" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AB40" s="55" t="s">
+      <c r="AC40" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AC40" s="55" t="s">
+      <c r="AD40" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AD40" s="55" t="s">
+      <c r="AE40" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AE40" s="55" t="s">
+      <c r="AF40" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AF40" s="55" t="s">
+      <c r="AG40" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="AG40" s="55" t="s">
+      <c r="AH40" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AH40" s="55" t="s">
+      <c r="AI40" s="55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B41" s="89" t="s">
         <v>5</v>
       </c>
@@ -12096,87 +12156,87 @@
       <c r="D41" s="94">
         <v>2020</v>
       </c>
-      <c r="I41" s="133" t="s">
+      <c r="J41" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="134" t="s">
+      <c r="K41" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="134" t="s">
+      <c r="L41" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="L41" s="135" t="s">
+      <c r="M41" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="M41" s="135">
+      <c r="N41" s="135">
         <v>2020</v>
       </c>
-      <c r="N41" s="135">
+      <c r="O41" s="135">
         <v>0</v>
       </c>
-      <c r="AA41" s="127" t="s">
+      <c r="AB41" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="AB41" s="127" t="s">
+      <c r="AC41" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="AC41" s="127" t="s">
+      <c r="AD41" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="AD41" s="127" t="s">
+      <c r="AE41" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AE41" s="127"/>
-      <c r="AF41" s="127" t="s">
+      <c r="AF41" s="127"/>
+      <c r="AG41" s="127" t="s">
         <v>90</v>
       </c>
-      <c r="AG41" s="127"/>
-      <c r="AH41" s="127" t="s">
+      <c r="AH41" s="127"/>
+      <c r="AI41" s="127" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B42" s="95" t="s">
         <v>212</v>
       </c>
       <c r="C42" s="95"/>
       <c r="D42" s="95"/>
-      <c r="I42" s="121" t="s">
+      <c r="J42" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J42" s="127" t="s">
+      <c r="K42" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K42" s="127" t="s">
+      <c r="L42" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="L42" s="122" t="s">
+      <c r="M42" s="122" t="s">
         <v>259</v>
       </c>
-      <c r="M42" s="122">
+      <c r="N42" s="122">
         <v>0.4</v>
       </c>
-      <c r="N42" s="122">
+      <c r="O42" s="122">
         <v>5</v>
       </c>
-      <c r="AA42" s="127" t="s">
+      <c r="AB42" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="AB42" s="127" t="s">
+      <c r="AC42" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="AC42" s="127" t="s">
+      <c r="AD42" s="127" t="s">
         <v>236</v>
       </c>
-      <c r="AD42" s="127" t="s">
+      <c r="AE42" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AE42" s="127"/>
       <c r="AF42" s="127"/>
       <c r="AG42" s="127"/>
       <c r="AH42" s="127"/>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI42" s="127"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" s="90" t="s">
         <v>186</v>
       </c>
@@ -12186,42 +12246,42 @@
       <c r="D43" s="99">
         <v>6.5924657534246575E-2</v>
       </c>
-      <c r="I43" s="121" t="s">
+      <c r="J43" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J43" s="127" t="s">
+      <c r="K43" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K43" s="127" t="s">
+      <c r="L43" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="L43" s="122" t="s">
+      <c r="M43" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M43" s="122">
+      <c r="N43" s="122">
         <v>4</v>
       </c>
-      <c r="N43" s="122">
+      <c r="O43" s="122">
         <v>5</v>
       </c>
-      <c r="AA43" s="127" t="s">
+      <c r="AB43" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="AB43" s="127" t="s">
+      <c r="AC43" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="AC43" s="127" t="s">
+      <c r="AD43" s="127" t="s">
         <v>238</v>
       </c>
-      <c r="AD43" s="127" t="s">
+      <c r="AE43" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AE43" s="127"/>
       <c r="AF43" s="127"/>
       <c r="AG43" s="127"/>
       <c r="AH43" s="127"/>
-    </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI43" s="127"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" s="90" t="s">
         <v>186</v>
       </c>
@@ -12231,46 +12291,46 @@
       <c r="D44" s="99">
         <v>0.13356164383561642</v>
       </c>
-      <c r="I44" s="121" t="s">
+      <c r="J44" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J44" s="127" t="s">
+      <c r="K44" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K44" s="136" t="s">
+      <c r="L44" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="L44" s="122" t="s">
+      <c r="M44" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M44" s="122">
+      <c r="N44" s="122">
         <v>0.8</v>
       </c>
-      <c r="N44" s="122">
+      <c r="O44" s="122">
         <v>5</v>
       </c>
-      <c r="AA44" s="127" t="s">
+      <c r="AB44" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="AB44" s="127" t="s">
+      <c r="AC44" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="AC44" s="127" t="s">
+      <c r="AD44" s="127" t="s">
         <v>248</v>
       </c>
-      <c r="AD44" s="127" t="s">
+      <c r="AE44" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AE44" s="127"/>
-      <c r="AF44" s="127" t="s">
+      <c r="AF44" s="127"/>
+      <c r="AG44" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="AG44" s="127"/>
-      <c r="AH44" s="127" t="s">
+      <c r="AH44" s="127"/>
+      <c r="AI44" s="127" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B45" s="90" t="s">
         <v>186</v>
       </c>
@@ -12280,46 +12340,46 @@
       <c r="D45" s="99">
         <v>5.9931506849315065E-3</v>
       </c>
-      <c r="I45" s="121" t="s">
+      <c r="J45" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J45" s="127" t="s">
+      <c r="K45" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K45" s="136" t="s">
+      <c r="L45" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="L45" s="122" t="s">
+      <c r="M45" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M45" s="122">
+      <c r="N45" s="122">
         <v>0.7</v>
       </c>
-      <c r="N45" s="122">
+      <c r="O45" s="122">
         <v>5</v>
       </c>
-      <c r="AA45" s="127" t="s">
+      <c r="AB45" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="AB45" s="127" t="s">
+      <c r="AC45" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="AC45" s="127" t="s">
+      <c r="AD45" s="127" t="s">
         <v>187</v>
       </c>
-      <c r="AD45" s="127" t="s">
+      <c r="AE45" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AE45" s="127"/>
-      <c r="AF45" s="127" t="s">
+      <c r="AF45" s="127"/>
+      <c r="AG45" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="AG45" s="127"/>
-      <c r="AH45" s="127" t="s">
+      <c r="AH45" s="127"/>
+      <c r="AI45" s="127" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" s="90" t="s">
         <v>186</v>
       </c>
@@ -12329,46 +12389,46 @@
       <c r="D46" s="99">
         <v>9.6849315068493147E-2</v>
       </c>
-      <c r="I46" s="121" t="s">
+      <c r="J46" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J46" s="127" t="s">
+      <c r="K46" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K46" s="136" t="s">
+      <c r="L46" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="L46" s="122" t="s">
+      <c r="M46" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M46" s="122">
+      <c r="N46" s="122">
         <v>0.8</v>
       </c>
-      <c r="N46" s="122">
+      <c r="O46" s="122">
         <v>5</v>
       </c>
-      <c r="AA46" s="127" t="s">
+      <c r="AB46" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="AB46" s="127" t="s">
+      <c r="AC46" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="AC46" s="127" t="s">
+      <c r="AD46" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="AD46" s="127" t="s">
+      <c r="AE46" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AE46" s="127"/>
-      <c r="AF46" s="127" t="s">
+      <c r="AF46" s="127"/>
+      <c r="AG46" s="127" t="s">
         <v>142</v>
       </c>
-      <c r="AG46" s="127"/>
-      <c r="AH46" s="127" t="s">
+      <c r="AH46" s="127"/>
+      <c r="AI46" s="127" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="90" t="s">
         <v>186</v>
       </c>
@@ -12378,42 +12438,42 @@
       <c r="D47" s="99">
         <v>0.17179223744292235</v>
       </c>
-      <c r="I47" s="121" t="s">
+      <c r="J47" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J47" s="127" t="s">
+      <c r="K47" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K47" s="136" t="s">
+      <c r="L47" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="L47" s="122" t="s">
+      <c r="M47" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M47" s="122">
+      <c r="N47" s="122">
         <v>0.7</v>
       </c>
-      <c r="N47" s="122">
+      <c r="O47" s="122">
         <v>5</v>
       </c>
-      <c r="AA47" s="127" t="s">
+      <c r="AB47" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="AB47" s="127" t="s">
+      <c r="AC47" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="AC47" s="127" t="s">
+      <c r="AD47" s="127" t="s">
         <v>234</v>
       </c>
-      <c r="AD47" s="127" t="s">
+      <c r="AE47" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="AE47" s="122"/>
-      <c r="AF47" s="127"/>
+      <c r="AF47" s="122"/>
       <c r="AG47" s="127"/>
       <c r="AH47" s="127"/>
-    </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI47" s="127"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B48" s="90" t="s">
         <v>186</v>
       </c>
@@ -12423,44 +12483,44 @@
       <c r="D48" s="99">
         <v>8.0707762557077605E-3</v>
       </c>
-      <c r="I48" s="121" t="s">
+      <c r="J48" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J48" s="127" t="s">
+      <c r="K48" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K48" s="136" t="s">
+      <c r="L48" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="L48" s="122" t="s">
+      <c r="M48" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M48" s="122">
+      <c r="N48" s="122">
         <v>0.8</v>
       </c>
-      <c r="N48" s="122">
+      <c r="O48" s="122">
         <v>5</v>
       </c>
-      <c r="AA48" s="127" t="s">
+      <c r="AB48" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="AB48" s="127" t="s">
+      <c r="AC48" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="AC48" s="127" t="s">
+      <c r="AD48" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="AD48" s="127" t="s">
+      <c r="AE48" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AE48" s="122" t="s">
+      <c r="AF48" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="AF48" s="127"/>
       <c r="AG48" s="127"/>
       <c r="AH48" s="127"/>
-    </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI48" s="127"/>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B49" s="90" t="s">
         <v>186</v>
       </c>
@@ -12470,44 +12530,44 @@
       <c r="D49" s="99">
         <v>6.9440639269406385E-2</v>
       </c>
-      <c r="I49" s="121" t="s">
+      <c r="J49" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J49" s="127" t="s">
+      <c r="K49" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K49" s="136" t="s">
+      <c r="L49" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="L49" s="122" t="s">
+      <c r="M49" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M49" s="122">
+      <c r="N49" s="122">
         <v>0.7</v>
       </c>
-      <c r="N49" s="122">
+      <c r="O49" s="122">
         <v>5</v>
       </c>
-      <c r="AA49" s="127" t="s">
+      <c r="AB49" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="AB49" s="127" t="s">
+      <c r="AC49" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="AC49" s="127" t="s">
+      <c r="AD49" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="AD49" s="127" t="s">
+      <c r="AE49" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="AE49" s="122" t="s">
+      <c r="AF49" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="AF49" s="127"/>
       <c r="AG49" s="127"/>
       <c r="AH49" s="127"/>
-    </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AI49" s="127"/>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B50" s="90" t="s">
         <v>186</v>
       </c>
@@ -12517,26 +12577,26 @@
       <c r="D50" s="99">
         <v>0.14068493150684933</v>
       </c>
-      <c r="I50" s="121" t="s">
+      <c r="J50" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J50" s="127" t="s">
+      <c r="K50" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K50" s="136" t="s">
+      <c r="L50" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="L50" s="122" t="s">
+      <c r="M50" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M50" s="122">
+      <c r="N50" s="122">
         <v>0.8</v>
       </c>
-      <c r="N50" s="122">
+      <c r="O50" s="122">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B51" s="90" t="s">
         <v>186</v>
       </c>
@@ -12546,26 +12606,26 @@
       <c r="D51" s="99">
         <v>6.3127853881278532E-3</v>
       </c>
-      <c r="I51" s="121" t="s">
+      <c r="J51" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="J51" s="127" t="s">
+      <c r="K51" s="127" t="s">
         <v>276</v>
       </c>
-      <c r="K51" s="136" t="s">
+      <c r="L51" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="L51" s="122" t="s">
+      <c r="M51" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="M51" s="122">
+      <c r="N51" s="122">
         <v>0.7</v>
       </c>
-      <c r="N51" s="122">
+      <c r="O51" s="122">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B52" s="90" t="s">
         <v>186</v>
       </c>
@@ -12575,10 +12635,10 @@
       <c r="D52" s="99">
         <v>9.6689497716894973E-2</v>
       </c>
-      <c r="M52" s="69"/>
       <c r="N52" s="69"/>
-    </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="O52" s="69"/>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B53" s="90" t="s">
         <v>186</v>
       </c>
@@ -12588,10 +12648,10 @@
       <c r="D53" s="99">
         <v>0.19589041095890411</v>
       </c>
-      <c r="M53" s="69"/>
       <c r="N53" s="69"/>
-    </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="O53" s="69"/>
+    </row>
+    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B54" s="92" t="s">
         <v>186</v>
       </c>
@@ -12601,12 +12661,12 @@
       <c r="D54" s="113">
         <v>8.7899543378995425E-3</v>
       </c>
-      <c r="I54" s="105"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="69"/>
-      <c r="P54" s="33"/>
-    </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="J54" s="105"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="69"/>
+      <c r="Q54" s="33"/>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B55" s="90" t="s">
         <v>183</v>
       </c>
@@ -12617,7 +12677,7 @@
         <v>0.1365582191780822</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B56" s="90" t="s">
         <v>183</v>
       </c>
@@ -12628,7 +12688,7 @@
         <v>5.779109589041094E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B57" s="90" t="s">
         <v>183</v>
       </c>
@@ -12639,7 +12699,7 @@
         <v>1.1130136986301371E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B58" s="90" t="s">
         <v>183</v>
       </c>
@@ -12650,7 +12710,7 @@
         <v>0.20061643835616438</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B59" s="90" t="s">
         <v>183</v>
       </c>
@@ -12661,7 +12721,7 @@
         <v>6.1107305936073032E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" s="90" t="s">
         <v>183</v>
       </c>
@@ -12672,7 +12732,7 @@
         <v>1.4988584474885843E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B61" s="90" t="s">
         <v>183</v>
       </c>
@@ -12683,7 +12743,7 @@
         <v>0.14384132420091322</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B62" s="90" t="s">
         <v>183</v>
       </c>
@@ -12694,7 +12754,7 @@
         <v>6.0873287671232894E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B63" s="90" t="s">
         <v>183</v>
       </c>
@@ -12705,7 +12765,7 @@
         <v>1.1723744292237442E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B64" s="90" t="s">
         <v>183</v>
       </c>

--- a/SubRES_TMPL/SubRES_Storage.xlsx
+++ b/SubRES_TMPL/SubRES_Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79251323-4107-48BD-AA6D-29548EAE11A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D397A414-9328-4EE3-814F-7C8A115C1AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -1918,7 +1918,7 @@
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="AG8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="AH8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2011,7 +2011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="AI8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2036,7 +2036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="AJ8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2124,7 +2124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="AC9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2367,7 +2367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+    <comment ref="B14" authorId="3" shapeId="0" xr:uid="{AA71A410-D429-40B6-9AE4-2C366C35441C}">
       <text>
         <r>
           <rPr>
@@ -2396,7 +2396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+    <comment ref="J14" authorId="3" shapeId="0" xr:uid="{C3878D10-BC53-4B4D-A23F-808310B07A7B}">
       <text>
         <r>
           <rPr>
@@ -2418,7 +2418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD14" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+    <comment ref="AE14" authorId="3" shapeId="0" xr:uid="{A01FC9DB-F5AA-4000-806C-409033F1E22F}">
       <text>
         <r>
           <rPr>
@@ -2447,7 +2447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+    <comment ref="J15" authorId="3" shapeId="0" xr:uid="{1F43299A-25F8-4FE9-9499-C5AA455D834D}">
       <text>
         <r>
           <rPr>
@@ -2469,7 +2469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+    <comment ref="D16" authorId="3" shapeId="0" xr:uid="{CBA8162F-9554-4D05-BE79-FFE344A20879}">
       <text>
         <r>
           <rPr>
@@ -2491,7 +2491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+    <comment ref="J16" authorId="3" shapeId="0" xr:uid="{EF4E6100-D7AA-4FB3-BCC1-FC3A8F0903ED}">
       <text>
         <r>
           <rPr>
@@ -2513,7 +2513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+    <comment ref="C20" authorId="3" shapeId="0" xr:uid="{594475E1-20DF-4298-934A-AAD08D26967C}">
       <text>
         <r>
           <rPr>
@@ -2556,7 +2556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+    <comment ref="E20" authorId="3" shapeId="0" xr:uid="{D81C3929-65D7-4B4E-99D8-932100DE2782}">
       <text>
         <r>
           <rPr>
@@ -2599,7 +2599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+    <comment ref="J20" authorId="2" shapeId="0" xr:uid="{82530D41-94D9-4F0C-99A2-A94D57BD4552}">
       <text>
         <r>
           <rPr>
@@ -2623,7 +2623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+    <comment ref="O20" authorId="3" shapeId="0" xr:uid="{26CFC7C0-DC2E-4B36-BF15-B53AD22172FE}">
       <text>
         <r>
           <rPr>
@@ -2647,7 +2647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+    <comment ref="P20" authorId="2" shapeId="0" xr:uid="{7D695331-9DF8-42B4-892C-B4293298EDC2}">
       <text>
         <r>
           <rPr>
@@ -2671,7 +2671,311 @@
         </r>
       </text>
     </comment>
-    <comment ref="T26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
+    <comment ref="B21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antti L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Special load shifting process.
+One could optionally also define e.g.
+• Investment cost on the load shifted
+• Maximum allowed time to meet the shifted loads in advance or with delay
+• Cost of shifting of one unit of demand load by one hour, forward (UP) and/or 
+backward (LO).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Antti L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Limit on load shifted as a fraction of demand in each timeslice.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antti L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Special load shifting process.
+One could optionally also define e.g.
+• Investment cost on the load shifted
+• Maximum allowed time to meet the shifted loads in advance or with delay
+• Cost of shifting of one unit of demand load by one hour, forward (UP) and/or 
+backward (LO).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Antti L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Limit on load shifted as a fraction of demand in each timeslice.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Antti L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Limit on total load shifted as a fraction of daily demand.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Antti L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Limit on total load shifted as a fraction of total daily demands.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Antti L:
+Important: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Due to the process being of type </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NST</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this back injection (V2G ) requires both Input+Output, and also requires using TIMES v4.5.1 or above to be enabled (it remains disabled in earlier versions).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Antti L:
+Important: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Due to the process being of type </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NST</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this back injection (V2G ) requires both Input+Output, and also requires using TIMES v4.5.1 or above to be enabled (it remains disabled in earlier versions).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antti-L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Transmission fee assumed for power injected to grid.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O27" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antti L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Disable charging directly from Input ELC.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antti-L:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5% efficiency loss assumed when feeding to grid.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T33" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -2696,7 +3000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
+    <comment ref="C34" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -2739,7 +3043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
+    <comment ref="E34" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -2782,7 +3086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
+    <comment ref="O34" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -2806,7 +3110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T28" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
+    <comment ref="T35" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -2830,7 +3134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
+    <comment ref="F37" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2854,7 +3158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB40" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
+    <comment ref="AC47" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2968,7 +3272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF40" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
+    <comment ref="AG47" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2994,7 +3298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
+    <comment ref="AH47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
       <text>
         <r>
           <rPr>
@@ -3067,7 +3371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
+    <comment ref="AI47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -3120,7 +3424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
+    <comment ref="AJ47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -3153,7 +3457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N42" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
+    <comment ref="N49" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -3182,7 +3486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="284">
   <si>
     <t>TechName</t>
   </si>
@@ -3661,9 +3965,6 @@
     <t>Utility-scale battery storage (week's storage)</t>
   </si>
   <si>
-    <t>Utility-scale battery storage (8 hours, capacity in GWh storage)</t>
-  </si>
-  <si>
     <t>FLO_DELIV</t>
   </si>
   <si>
@@ -4022,6 +4323,21 @@
   </si>
   <si>
     <t>Liquid Hydrogen fuel</t>
+  </si>
+  <si>
+    <t>TRASIFT_V2G</t>
+  </si>
+  <si>
+    <t>Load shifting by Flexible charging</t>
+  </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>NCAP_BND~0~UP</t>
+  </si>
+  <si>
+    <t>Utility-scale battery storage (6 hours, capacity in GWh storage)</t>
   </si>
 </sst>
 </file>
@@ -4036,7 +4352,7 @@
     <numFmt numFmtId="168" formatCode="\Te\x\t"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4217,6 +4533,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4515,7 +4838,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4791,6 +5114,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -5189,8 +5514,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5347,7 +5672,7 @@
         <v>116</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P8" s="37" t="s">
         <v>155</v>
@@ -5359,7 +5684,7 @@
         <v>148</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T8" s="68" t="s">
         <v>32</v>
@@ -5368,7 +5693,7 @@
         <v>4</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W8" s="37" t="s">
         <v>44</v>
@@ -5438,7 +5763,7 @@
         <v>117</v>
       </c>
       <c r="O9" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P9" s="85" t="s">
         <v>156</v>
@@ -5450,7 +5775,7 @@
         <v>149</v>
       </c>
       <c r="S9" s="86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T9" s="85" t="s">
         <v>48</v>
@@ -5459,7 +5784,7 @@
         <v>33</v>
       </c>
       <c r="V9" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W9" s="85" t="s">
         <v>67</v>
@@ -5890,7 +6215,7 @@
         <v>90</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ15" s="61"/>
       <c r="AK15" s="129"/>
@@ -6628,8 +6953,8 @@
       <c r="AD27" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AE27" t="s">
-        <v>159</v>
+      <c r="AE27" s="138" t="s">
+        <v>283</v>
       </c>
       <c r="AF27" s="59" t="s">
         <v>41</v>
@@ -7032,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="AC33" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD33" s="59" t="s">
         <v>85</v>
@@ -7047,7 +7372,7 @@
         <v>42</v>
       </c>
       <c r="AH33" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AI33" s="59" t="s">
         <v>92</v>
@@ -7114,7 +7439,7 @@
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C40" s="88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -7182,10 +7507,10 @@
         <v>114</v>
       </c>
       <c r="AD42" s="125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE42" s="126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF42" s="125" t="s">
         <v>41</v>
@@ -7214,10 +7539,10 @@
         <v>114</v>
       </c>
       <c r="AD43" s="125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AE43" s="126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF43" s="125" t="s">
         <v>41</v>
@@ -7283,14 +7608,14 @@
         <v>40</v>
       </c>
       <c r="AE45" s="127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF45" s="125" t="s">
         <v>41</v>
       </c>
       <c r="AG45" s="127"/>
       <c r="AH45" s="125" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AI45" s="127"/>
       <c r="AJ45" s="127" t="s">
@@ -7317,7 +7642,7 @@
         <v>92</v>
       </c>
       <c r="AE46" s="127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF46" s="125" t="s">
         <v>41</v>
@@ -7328,7 +7653,7 @@
       </c>
       <c r="AI46" s="127"/>
       <c r="AJ46" s="127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="2:36" x14ac:dyDescent="0.2">
@@ -7351,7 +7676,7 @@
         <v>145</v>
       </c>
       <c r="AE47" s="127" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF47" s="125" t="s">
         <v>41</v>
@@ -7381,7 +7706,7 @@
         <v>65</v>
       </c>
       <c r="AE48" s="127" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF48" s="125" t="s">
         <v>41</v>
@@ -7411,7 +7736,7 @@
         <v>131</v>
       </c>
       <c r="AE49" s="127" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF49" s="125" t="s">
         <v>41</v>
@@ -7698,7 +8023,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M9" s="68" t="s">
         <v>16</v>
@@ -7907,10 +8232,10 @@
         <v>99</v>
       </c>
       <c r="Y12" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Z12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AA12" s="59" t="s">
         <v>41</v>
@@ -7919,7 +8244,7 @@
         <v>58</v>
       </c>
       <c r="AC12" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD12" s="59" t="s">
         <v>120</v>
@@ -7993,7 +8318,7 @@
         <v>42</v>
       </c>
       <c r="AC13" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD13" s="59" t="s">
         <v>102</v>
@@ -8098,7 +8423,7 @@
         <v>58</v>
       </c>
       <c r="AC15" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD15" s="59" t="s">
         <v>102</v>
@@ -8154,7 +8479,7 @@
       </c>
       <c r="V16" s="79"/>
       <c r="X16" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y16" s="59" t="s">
         <v>84</v>
@@ -8169,7 +8494,7 @@
         <v>42</v>
       </c>
       <c r="AC16" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD16" s="14" t="s">
         <v>102</v>
@@ -8228,10 +8553,10 @@
         <v>UPSSTCOA1</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>266</v>
       </c>
       <c r="G18" s="75" t="s">
         <v>71</v>
@@ -8267,13 +8592,13 @@
       </c>
       <c r="V18" s="79"/>
       <c r="X18" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z18" t="s">
         <v>267</v>
-      </c>
-      <c r="Y18" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>268</v>
       </c>
       <c r="AA18" s="59" t="s">
         <v>41</v>
@@ -8285,13 +8610,13 @@
         <v>142</v>
       </c>
       <c r="AD18" s="59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AE18" s="59"/>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E19" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="75"/>
       <c r="H19" s="79"/>
@@ -8405,14 +8730,14 @@
         <v>102</v>
       </c>
       <c r="Z27" s="127" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA27" s="125" t="s">
         <v>41</v>
       </c>
       <c r="AB27" s="127"/>
       <c r="AC27" s="127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD27" s="127"/>
       <c r="AE27" s="127"/>
@@ -8425,14 +8750,14 @@
         <v>91</v>
       </c>
       <c r="Z28" s="127" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA28" s="125" t="s">
         <v>41</v>
       </c>
       <c r="AB28" s="127"/>
       <c r="AC28" s="127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD28" s="127"/>
       <c r="AE28" s="127"/>
@@ -8445,14 +8770,14 @@
         <v>120</v>
       </c>
       <c r="Z29" s="127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AA29" s="125" t="s">
         <v>41</v>
       </c>
       <c r="AB29" s="127"/>
       <c r="AC29" s="127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD29" s="127"/>
       <c r="AE29" s="127" t="s">
@@ -8472,7 +8797,7 @@
   <dimension ref="A1:AF57"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8522,7 +8847,7 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>55</v>
@@ -8592,7 +8917,7 @@
         <v>108</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I8" s="68">
         <v>2020</v>
@@ -8607,13 +8932,13 @@
         <v>14</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N8" s="37" t="s">
         <v>71</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P8" s="68" t="s">
         <v>147</v>
@@ -8628,7 +8953,7 @@
         <v>4</v>
       </c>
       <c r="T8" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U8" s="37" t="s">
         <v>44</v>
@@ -8702,7 +9027,7 @@
         <v>33</v>
       </c>
       <c r="T9" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U9" s="85" t="s">
         <v>67</v>
@@ -8782,10 +9107,10 @@
         <v>RSOLPV1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
@@ -8831,13 +9156,13 @@
       </c>
       <c r="W11" s="79"/>
       <c r="Y11" s="60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z11" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA11" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB11" s="59" t="s">
         <v>41</v>
@@ -8849,7 +9174,7 @@
         <v>142</v>
       </c>
       <c r="AE11" s="59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF11" s="59"/>
     </row>
@@ -8859,10 +9184,10 @@
         <v>RSTGBAT1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="79" t="s">
         <v>114</v>
@@ -8913,10 +9238,10 @@
         <v>78</v>
       </c>
       <c r="Z12" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA12" s="62" t="s">
         <v>207</v>
-      </c>
-      <c r="AA12" s="62" t="s">
-        <v>208</v>
       </c>
       <c r="AB12" s="59" t="s">
         <v>41</v>
@@ -8928,7 +9253,7 @@
         <v>90</v>
       </c>
       <c r="AE12" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF12" s="59"/>
     </row>
@@ -9027,13 +9352,13 @@
         <v>RSOLPV2</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E15" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="79"/>
       <c r="G15" s="75" t="s">
@@ -9081,13 +9406,13 @@
         <v>1</v>
       </c>
       <c r="Y15" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z15" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="Z15" s="59" t="s">
-        <v>204</v>
-      </c>
       <c r="AA15" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB15" s="59" t="s">
         <v>41</v>
@@ -9099,7 +9424,7 @@
         <v>90</v>
       </c>
       <c r="AE15" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF15" s="59"/>
     </row>
@@ -9155,7 +9480,7 @@
     <row r="17" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B17" s="105"/>
       <c r="C17" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="114" t="s">
@@ -9201,12 +9526,12 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="114"/>
       <c r="F18" s="114"/>
       <c r="G18" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="75"/>
       <c r="I18" s="79">
@@ -9243,16 +9568,16 @@
         <v>78</v>
       </c>
       <c r="Z18" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA18" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB18" s="61" t="s">
         <v>41</v>
       </c>
       <c r="AC18" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AD18" s="60" t="s">
         <v>90</v>
@@ -9270,7 +9595,7 @@
         <v>151</v>
       </c>
       <c r="G19" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="75"/>
       <c r="I19" s="79">
@@ -9312,10 +9637,10 @@
       <c r="E20" s="114"/>
       <c r="F20" s="114"/>
       <c r="G20" s="75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H20" s="131" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I20" s="79"/>
       <c r="J20" s="79">
@@ -9354,10 +9679,10 @@
       <c r="E21" s="114"/>
       <c r="F21" s="114"/>
       <c r="G21" s="75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" s="131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I21" s="79"/>
       <c r="J21" s="79">
@@ -9396,10 +9721,10 @@
         <v>RSHNELC3</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E22" s="70" t="s">
         <v>114</v>
@@ -9442,13 +9767,13 @@
       </c>
       <c r="W22" s="6"/>
       <c r="Y22" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z22" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA22" s="62" t="s">
         <v>200</v>
-      </c>
-      <c r="AA22" s="62" t="s">
-        <v>201</v>
       </c>
       <c r="AB22" s="59" t="s">
         <v>41</v>
@@ -9460,7 +9785,7 @@
         <v>142</v>
       </c>
       <c r="AE22" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF22" s="59"/>
     </row>
@@ -9470,10 +9795,10 @@
         <v>RSHNSOL3</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="70" t="s">
         <v>114</v>
@@ -9517,13 +9842,13 @@
       </c>
       <c r="W23" s="6"/>
       <c r="Y23" s="59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z23" s="59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA23" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB23" s="59" t="s">
         <v>41</v>
@@ -9535,16 +9860,16 @@
         <v>142</v>
       </c>
       <c r="AE23" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF23" s="59"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C24" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G24" s="75"/>
       <c r="H24" s="75"/>
@@ -9673,7 +9998,7 @@
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" s="112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="112"/>
       <c r="D29" s="112"/>
@@ -9681,7 +10006,7 @@
       <c r="F29" s="45"/>
       <c r="G29" s="43"/>
       <c r="M29" s="112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N29" s="112"/>
       <c r="O29" s="112"/>
@@ -9724,7 +10049,7 @@
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C31" s="88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
@@ -9732,7 +10057,7 @@
       <c r="N31" s="43"/>
       <c r="O31" s="28"/>
       <c r="P31" s="88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
@@ -9805,13 +10130,13 @@
       <c r="W32" s="26"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z32" s="127" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA32" s="127" t="s">
         <v>219</v>
-      </c>
-      <c r="Z32" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA32" s="127" t="s">
-        <v>220</v>
       </c>
       <c r="AB32" s="125" t="s">
         <v>41</v>
@@ -9827,7 +10152,7 @@
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B33" s="95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="95"/>
       <c r="D33" s="95"/>
@@ -9835,13 +10160,13 @@
       <c r="F33" s="45"/>
       <c r="G33" s="43"/>
       <c r="M33" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="N33" s="95" t="s">
         <v>213</v>
       </c>
-      <c r="N33" s="95" t="s">
+      <c r="O33" s="95" t="s">
         <v>214</v>
-      </c>
-      <c r="O33" s="95" t="s">
-        <v>215</v>
       </c>
       <c r="P33" s="95"/>
       <c r="Q33" s="95"/>
@@ -9856,10 +10181,10 @@
         <v>114</v>
       </c>
       <c r="Z33" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA33" s="127" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB33" s="127" t="s">
         <v>41</v>
@@ -9871,7 +10196,7 @@
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B34" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C34" s="91" t="s">
         <v>121</v>
@@ -9883,13 +10208,13 @@
       <c r="F34" s="45"/>
       <c r="G34" s="43"/>
       <c r="M34" s="121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N34" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O34" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P34" s="122" t="s">
         <v>126</v>
@@ -9910,10 +10235,10 @@
         <v>114</v>
       </c>
       <c r="Z34" s="127" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA34" s="127" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB34" s="127" t="s">
         <v>41</v>
@@ -9929,7 +10254,7 @@
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B35" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="91" t="s">
         <v>122</v>
@@ -9941,13 +10266,13 @@
       <c r="F35" s="45"/>
       <c r="G35" s="43"/>
       <c r="M35" s="121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N35" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O35" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P35" s="123" t="s">
         <v>127</v>
@@ -9965,13 +10290,13 @@
       <c r="W35" s="26"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z35" s="127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA35" s="127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB35" s="127" t="s">
         <v>41</v>
@@ -9983,7 +10308,7 @@
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B36" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>123</v>
@@ -9992,13 +10317,13 @@
         <v>6.7616017513258894E-2</v>
       </c>
       <c r="M36" s="121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N36" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O36" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P36" s="123" t="s">
         <v>128</v>
@@ -10010,13 +10335,13 @@
         <v>3</v>
       </c>
       <c r="Y36" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z36" s="127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA36" s="127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB36" s="127" t="s">
         <v>41</v>
@@ -10028,7 +10353,7 @@
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" s="91" t="s">
         <v>124</v>
@@ -10037,13 +10362,13 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="M37" s="121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N37" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O37" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P37" s="123" t="s">
         <v>129</v>
@@ -10055,13 +10380,13 @@
         <v>3</v>
       </c>
       <c r="Y37" s="127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z37" s="127" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA37" s="127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB37" s="127" t="s">
         <v>41</v>
@@ -10073,7 +10398,7 @@
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B38" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="91" t="s">
         <v>125</v>
@@ -10082,13 +10407,13 @@
         <v>0.05</v>
       </c>
       <c r="M38" s="121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N38" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O38" s="91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P38" s="123" t="s">
         <v>142</v>
@@ -10102,7 +10427,7 @@
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B39" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" s="91" t="s">
         <v>132</v>
@@ -10113,7 +10438,7 @@
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B40" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="91" t="s">
         <v>133</v>
@@ -10124,7 +10449,7 @@
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B41" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" s="91" t="s">
         <v>134</v>
@@ -10135,7 +10460,7 @@
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B42" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C42" s="91" t="s">
         <v>135</v>
@@ -10146,7 +10471,7 @@
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B43" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C43" s="91" t="s">
         <v>136</v>
@@ -10157,7 +10482,7 @@
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B44" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44" s="91" t="s">
         <v>137</v>
@@ -10168,7 +10493,7 @@
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B45" s="128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C45" s="93" t="s">
         <v>138</v>
@@ -10179,7 +10504,7 @@
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B46" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" s="91" t="s">
         <v>121</v>
@@ -10190,7 +10515,7 @@
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B47" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C47" s="91" t="s">
         <v>122</v>
@@ -10201,7 +10526,7 @@
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B48" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C48" s="91" t="s">
         <v>123</v>
@@ -10212,7 +10537,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="91" t="s">
         <v>124</v>
@@ -10223,7 +10548,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C50" s="91" t="s">
         <v>125</v>
@@ -10234,7 +10559,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C51" s="91" t="s">
         <v>132</v>
@@ -10245,7 +10570,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="91" t="s">
         <v>133</v>
@@ -10256,7 +10581,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53" s="91" t="s">
         <v>134</v>
@@ -10267,7 +10592,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C54" s="91" t="s">
         <v>135</v>
@@ -10278,7 +10603,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C55" s="91" t="s">
         <v>136</v>
@@ -10289,7 +10614,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="127" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C56" s="91" t="s">
         <v>137</v>
@@ -10300,7 +10625,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C57" s="93" t="s">
         <v>138</v>
@@ -10318,10 +10643,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:AI66"/>
+  <dimension ref="B1:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10344,22 +10669,22 @@
     <col min="20" max="20" width="8.28515625" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
     <col min="24" max="24" width="10.5703125" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="2" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" customWidth="1"/>
-    <col min="30" max="30" width="71.7109375" customWidth="1"/>
-    <col min="31" max="31" width="5.7109375" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.7109375" customWidth="1"/>
+    <col min="28" max="28" width="2" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="31" max="31" width="71.7109375" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" customWidth="1"/>
+    <col min="33" max="33" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:36" ht="15" x14ac:dyDescent="0.25">
       <c r="J1" s="27"/>
     </row>
-    <row r="2" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -10374,7 +10699,7 @@
       </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="2:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
@@ -10388,15 +10713,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:35" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:36" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="7"/>
+      <c r="AB4" s="26"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -10404,8 +10728,9 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="7"/>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -10434,19 +10759,20 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7"/>
-      <c r="AB7" s="53" t="s">
+      <c r="AA7" s="3"/>
+      <c r="AB7"/>
+      <c r="AC7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="AC7" s="61"/>
       <c r="AD7" s="61"/>
       <c r="AE7" s="61"/>
       <c r="AF7" s="61"/>
       <c r="AG7" s="61"/>
       <c r="AH7" s="61"/>
       <c r="AI7" s="61"/>
-    </row>
-    <row r="8" spans="2:35" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="61"/>
+    </row>
+    <row r="8" spans="2:36" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
@@ -10469,7 +10795,7 @@
         <v>108</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J8" s="68">
         <v>2020</v>
@@ -10487,13 +10813,13 @@
         <v>96</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P8" s="37" t="s">
         <v>71</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>69</v>
@@ -10511,10 +10837,10 @@
         <v>4</v>
       </c>
       <c r="W8" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X8" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y8" s="37" t="s">
         <v>44</v>
@@ -10522,33 +10848,36 @@
       <c r="Z8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="55" t="s">
+      <c r="AA8" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="55" t="s">
+      <c r="AD8" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AD8" s="55" t="s">
+      <c r="AE8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="AE8" s="55" t="s">
+      <c r="AF8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AF8" s="55" t="s">
+      <c r="AG8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AG8" s="55" t="s">
+      <c r="AH8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="55" t="s">
+      <c r="AI8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AI8" s="55" t="s">
+      <c r="AJ8" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>46</v>
       </c>
@@ -10594,7 +10923,7 @@
         <v>33</v>
       </c>
       <c r="X9" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y9" s="85" t="s">
         <v>67</v>
@@ -10602,33 +10931,34 @@
       <c r="Z9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="57" t="s">
-        <v>166</v>
-      </c>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="34"/>
       <c r="AC9" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AD9" s="57" t="s">
+      <c r="AE9" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AE9" s="57" t="s">
+      <c r="AF9" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AF9" s="57" t="s">
+      <c r="AG9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="57" t="s">
+      <c r="AH9" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AH9" s="57" t="s">
+      <c r="AI9" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="AI9" s="57" t="s">
+      <c r="AJ9" s="57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
@@ -10658,21 +10988,22 @@
         <v>54</v>
       </c>
       <c r="Z10" s="84"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="63" t="s">
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AC10" s="64"/>
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
       <c r="AF10" s="64"/>
       <c r="AG10" s="64"/>
       <c r="AH10" s="64"/>
       <c r="AI10" s="64"/>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ10" s="64"/>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B11" s="105" t="str">
-        <f>AC11</f>
+        <f>AD11</f>
         <v>FTE-TRDHH2</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -10680,7 +11011,7 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="79"/>
       <c r="G11" s="79"/>
@@ -10715,43 +11046,44 @@
       <c r="Z11" s="79">
         <v>1</v>
       </c>
-      <c r="AA11"/>
-      <c r="AB11" s="60" t="s">
+      <c r="AA11" s="79"/>
+      <c r="AB11"/>
+      <c r="AC11" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="AC11" s="54" t="s">
-        <v>178</v>
       </c>
       <c r="AD11" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="AE11" s="61" t="s">
+      <c r="AE11" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AF11" s="61" t="s">
+      <c r="AG11" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH11" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI11" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ11" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="AG11" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH11" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI11" s="59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B12" s="105" t="str">
-        <f>AC12</f>
+        <f>AD12</f>
         <v>TRAFASTELC1</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" s="79"/>
       <c r="G12" s="79"/>
@@ -10788,43 +11120,44 @@
       <c r="Z12" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="AA12"/>
-      <c r="AB12" s="60" t="s">
+      <c r="AA12" s="79"/>
+      <c r="AB12"/>
+      <c r="AC12" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" s="54" t="s">
-        <v>241</v>
-      </c>
       <c r="AD12" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE12" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE12" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF12" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AF12" s="61" t="s">
+      <c r="AG12" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH12" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI12" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ12" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="AG12" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH12" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI12" s="59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B13" s="105" t="str">
-        <f>AC13</f>
+        <f>AD13</f>
         <v>TRASLOWELC1</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="79"/>
       <c r="G13" s="79"/>
@@ -10855,46 +11188,47 @@
       <c r="Z13" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="AA13"/>
-      <c r="AB13" s="60" t="s">
+      <c r="AA13" s="79"/>
+      <c r="AB13"/>
+      <c r="AC13" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="AC13" s="54" t="s">
-        <v>242</v>
-      </c>
       <c r="AD13" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE13" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF13" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG13" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="AE13" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF13" s="61" t="s">
+      <c r="AJ13" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI13" s="59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B14" s="105" t="str">
-        <f>AC14</f>
+        <f>AD14</f>
         <v>TRASIFTELC1</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" s="79"/>
       <c r="G14" s="79"/>
       <c r="H14" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="82">
@@ -10928,42 +11262,45 @@
       <c r="Z14" s="79">
         <v>31.536000000000001</v>
       </c>
-      <c r="AA14"/>
-      <c r="AB14" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC14" s="54" t="s">
-        <v>243</v>
+      <c r="AA14" s="79">
+        <v>2</v>
+      </c>
+      <c r="AB14"/>
+      <c r="AC14" s="60" t="s">
+        <v>191</v>
       </c>
       <c r="AD14" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE14" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE14" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF14" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AF14" s="61" t="s">
+      <c r="AG14" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH14" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI14" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ14" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="AG14" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH14" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI14" s="59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B15" s="105"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
       <c r="H15" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I15" s="75"/>
       <c r="J15" s="82">
@@ -10989,21 +11326,22 @@
       <c r="X15" s="78"/>
       <c r="Y15" s="79"/>
       <c r="Z15" s="79"/>
-      <c r="AA15"/>
-      <c r="AB15" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA15" s="79"/>
+      <c r="AB15"/>
       <c r="AC15" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD15" s="108"/>
-      <c r="AE15" s="106"/>
+      <c r="AD15" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE15" s="108"/>
       <c r="AF15" s="106"/>
       <c r="AG15" s="106"/>
       <c r="AH15" s="106"/>
       <c r="AI15" s="106"/>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ15" s="106"/>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B16" s="105"/>
       <c r="D16" s="79" t="s">
         <v>151</v>
@@ -11012,7 +11350,7 @@
       <c r="F16" s="79"/>
       <c r="G16" s="79"/>
       <c r="H16" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I16" s="75"/>
       <c r="J16" s="82">
@@ -11038,31 +11376,32 @@
       <c r="X16" s="78"/>
       <c r="Y16" s="79"/>
       <c r="Z16" s="79"/>
-      <c r="AA16"/>
-      <c r="AB16" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA16" s="79"/>
+      <c r="AB16"/>
       <c r="AC16" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD16" s="108"/>
-      <c r="AE16" s="106"/>
+      <c r="AD16" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE16" s="108"/>
       <c r="AF16" s="106"/>
       <c r="AG16" s="106"/>
       <c r="AH16" s="106"/>
       <c r="AI16" s="106"/>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="106"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" s="105"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
       <c r="H17" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I17" s="75"/>
       <c r="J17" s="82">
@@ -11090,31 +11429,32 @@
       </c>
       <c r="Y17" s="79"/>
       <c r="Z17" s="79"/>
-      <c r="AA17"/>
-      <c r="AB17" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA17" s="79"/>
+      <c r="AB17"/>
       <c r="AC17" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="106"/>
+      <c r="AD17" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE17" s="108"/>
       <c r="AF17" s="106"/>
       <c r="AG17" s="106"/>
       <c r="AH17" s="106"/>
       <c r="AI17" s="106"/>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="106"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B18" s="105"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="79"/>
       <c r="H18" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I18" s="75"/>
       <c r="J18" s="82">
@@ -11142,31 +11482,32 @@
       </c>
       <c r="Y18" s="79"/>
       <c r="Z18" s="79"/>
-      <c r="AA18"/>
-      <c r="AB18" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA18" s="79"/>
+      <c r="AB18"/>
       <c r="AC18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="106"/>
+      <c r="AD18" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE18" s="108"/>
       <c r="AF18" s="106"/>
       <c r="AG18" s="106"/>
       <c r="AH18" s="106"/>
       <c r="AI18" s="106"/>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="106"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B19" s="105"/>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="79"/>
       <c r="G19" s="79"/>
       <c r="H19" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I19" s="75"/>
       <c r="J19" s="82">
@@ -11194,33 +11535,36 @@
       <c r="X19" s="100"/>
       <c r="Y19" s="79"/>
       <c r="Z19" s="79"/>
-      <c r="AA19"/>
-      <c r="AB19" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA19" s="79"/>
+      <c r="AB19"/>
       <c r="AC19" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD19" s="108"/>
-      <c r="AE19" s="106"/>
+      <c r="AD19" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE19" s="108"/>
       <c r="AF19" s="106"/>
       <c r="AG19" s="106"/>
       <c r="AH19" s="106"/>
       <c r="AI19" s="106"/>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="106"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B20" s="105"/>
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="137" t="s">
+        <v>281</v>
+      </c>
       <c r="E20" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="79"/>
       <c r="G20" s="79"/>
       <c r="H20" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I20" s="75"/>
       <c r="J20" s="82">
@@ -11250,46 +11594,51 @@
       <c r="X20" s="100"/>
       <c r="Y20" s="79"/>
       <c r="Z20" s="79"/>
-      <c r="AA20"/>
-      <c r="AB20" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA20" s="79"/>
+      <c r="AB20"/>
       <c r="AC20" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="106"/>
+      <c r="AD20" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE20" s="108"/>
       <c r="AF20" s="106"/>
       <c r="AG20" s="106"/>
       <c r="AH20" s="106"/>
       <c r="AI20" s="106"/>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ20" s="106"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B21" s="105" t="str">
-        <f>AC21</f>
-        <v>TRARAGGELC1</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>183</v>
+        <f>AD21</f>
+        <v>TRASIFT_V2G</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>114</v>
-      </c>
+      <c r="E21" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="79"/>
       <c r="G21" s="79"/>
       <c r="H21" s="75" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="I21" s="75"/>
-      <c r="J21" s="82"/>
+      <c r="J21" s="82">
+        <v>0.2</v>
+      </c>
       <c r="K21" s="79">
-        <v>1</v>
-      </c>
-      <c r="L21" s="100"/>
-      <c r="M21" s="101"/>
+        <v>0.3</v>
+      </c>
+      <c r="L21" s="100">
+        <v>0.4</v>
+      </c>
+      <c r="M21" s="101">
+        <v>2020</v>
+      </c>
       <c r="N21" s="82"/>
       <c r="O21" s="82"/>
       <c r="P21" s="78"/>
@@ -11302,60 +11651,62 @@
       <c r="U21" s="79"/>
       <c r="V21" s="79"/>
       <c r="W21" s="79"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21"/>
-      <c r="AB21" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC21" s="105" t="s">
-        <v>247</v>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="79">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="79">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="AA21" s="79">
+        <v>2</v>
+      </c>
+      <c r="AB21"/>
+      <c r="AC21" s="60" t="s">
+        <v>191</v>
       </c>
       <c r="AD21" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE21" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE21" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF21" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="AF21" s="61" t="s">
+      <c r="AG21" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH21" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI21" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ21" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="AG21" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH21" s="61" t="s">
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B22" s="105"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="75" t="s">
         <v>168</v>
-      </c>
-      <c r="AI21" s="59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B22" s="105"/>
-      <c r="C22" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>259</v>
-      </c>
-      <c r="H22" s="75" t="s">
-        <v>189</v>
       </c>
       <c r="I22" s="75"/>
       <c r="J22" s="82">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="K22" s="79">
-        <v>0.8</v>
-      </c>
-      <c r="L22" s="78">
-        <v>0.75</v>
+        <v>0.4</v>
+      </c>
+      <c r="L22" s="100">
+        <v>0.6</v>
       </c>
       <c r="M22" s="101"/>
       <c r="N22" s="82"/>
@@ -11368,314 +11719,234 @@
       <c r="U22" s="79"/>
       <c r="V22" s="79"/>
       <c r="W22" s="79"/>
-      <c r="X22" s="100"/>
+      <c r="X22" s="78"/>
       <c r="Y22" s="79"/>
       <c r="Z22" s="79"/>
-      <c r="AA22"/>
-      <c r="AB22" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA22" s="79"/>
+      <c r="AB22"/>
       <c r="AC22" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="106"/>
+      <c r="AD22" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE22" s="108"/>
       <c r="AF22" s="106"/>
       <c r="AG22" s="106"/>
       <c r="AH22" s="106"/>
       <c r="AI22" s="106"/>
-    </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B23" s="105" t="str">
-        <f>AC23</f>
-        <v>TCANELC3</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="79" t="s">
+      <c r="AJ22" s="106"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B23" s="105"/>
+      <c r="D23" s="79" t="s">
         <v>151</v>
       </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="79"/>
       <c r="H23" s="75" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="82">
-        <v>1.8</v>
+        <v>0.15</v>
       </c>
       <c r="K23" s="79">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="L23" s="100">
-        <v>2.1</v>
-      </c>
-      <c r="M23" s="101">
-        <v>2020</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="101"/>
       <c r="N23" s="82"/>
       <c r="O23" s="82"/>
-      <c r="P23" s="78">
-        <v>1.3</v>
-      </c>
-      <c r="Q23" s="80">
-        <v>15</v>
-      </c>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="79">
-        <v>25</v>
-      </c>
-      <c r="V23" s="79">
-        <v>0.15</v>
-      </c>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
       <c r="W23" s="79"/>
       <c r="X23" s="78"/>
-      <c r="Y23" s="79">
-        <v>12</v>
-      </c>
-      <c r="Z23" s="79">
-        <v>1E-3</v>
-      </c>
-      <c r="AA23"/>
-      <c r="AB23" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC23" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD23" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE23" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF23" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG23" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH23" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI23" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B24" s="105" t="str">
-        <f>AC24</f>
-        <v>TCANELC4</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>168</v>
-      </c>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23"/>
+      <c r="AC23" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD23" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="106"/>
+      <c r="AI23" s="106"/>
+      <c r="AJ23" s="106"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B24" s="105"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>151</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F24" s="79"/>
       <c r="G24" s="79"/>
       <c r="H24" s="75" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="I24" s="75"/>
       <c r="J24" s="82">
-        <v>1.25</v>
+        <v>0.1</v>
       </c>
       <c r="K24" s="79">
-        <v>1.4</v>
-      </c>
-      <c r="L24" s="78">
-        <v>1.55</v>
-      </c>
-      <c r="M24" s="101">
-        <v>2020</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="100">
+        <v>0.3</v>
+      </c>
+      <c r="M24" s="101"/>
       <c r="N24" s="82"/>
       <c r="O24" s="82"/>
-      <c r="P24" s="78">
-        <v>1.3</v>
-      </c>
-      <c r="Q24" s="80">
-        <v>15</v>
-      </c>
-      <c r="U24" s="69">
-        <v>23</v>
-      </c>
-      <c r="V24" s="79">
-        <v>0.15</v>
-      </c>
-      <c r="Y24" s="79">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="79">
-        <v>1E-3</v>
-      </c>
-      <c r="AA24"/>
-      <c r="AB24" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC24" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD24" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE24" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF24" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG24" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH24" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI24" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="100">
+        <v>6.4</v>
+      </c>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24"/>
+      <c r="AC24" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD24" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
+      <c r="AI24" s="106"/>
+      <c r="AJ24" s="106"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B25" s="105"/>
-      <c r="C25" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="79" t="s">
-        <v>114</v>
-      </c>
+      <c r="E25" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="79"/>
       <c r="G25" s="79"/>
       <c r="H25" s="75" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="I25" s="75"/>
       <c r="J25" s="82">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K25" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="L25" s="100">
         <v>0.35</v>
-      </c>
-      <c r="L25" s="100">
-        <v>0.3</v>
       </c>
       <c r="M25" s="101"/>
       <c r="N25" s="82"/>
       <c r="O25" s="82"/>
       <c r="P25" s="78"/>
-      <c r="Q25" s="80"/>
-      <c r="U25" s="69"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
       <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="100">
+        <v>6.4</v>
+      </c>
       <c r="Y25" s="79"/>
       <c r="Z25" s="79"/>
-      <c r="AA25"/>
-      <c r="AB25" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA25" s="79"/>
+      <c r="AB25"/>
       <c r="AC25" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD25" s="108"/>
-      <c r="AE25" s="106"/>
+      <c r="AD25" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE25" s="108"/>
       <c r="AF25" s="106"/>
       <c r="AG25" s="106"/>
       <c r="AH25" s="106"/>
       <c r="AI25" s="106"/>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B26" s="105" t="str">
-        <f>AC26</f>
-        <v>TCANELC9</v>
-      </c>
+      <c r="AJ25" s="106"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B26" s="105"/>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="79" t="s">
-        <v>151</v>
-      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="79"/>
       <c r="H26" s="75" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="I26" s="75"/>
       <c r="J26" s="82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K26" s="79">
-        <v>1.9</v>
-      </c>
-      <c r="L26" s="79">
-        <v>2.1</v>
-      </c>
-      <c r="M26" s="101">
-        <v>2020</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="L26" s="100">
+        <v>1</v>
+      </c>
+      <c r="M26" s="101"/>
       <c r="N26" s="82"/>
       <c r="O26" s="82"/>
       <c r="P26" s="78"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="69">
-        <v>1</v>
-      </c>
-      <c r="S26" s="69"/>
-      <c r="T26">
-        <f>3.6*8.76*60/24</f>
-        <v>78.84</v>
-      </c>
-      <c r="U26" s="79">
-        <v>25</v>
-      </c>
-      <c r="V26" s="79">
-        <v>0.15</v>
-      </c>
-      <c r="Y26" s="79">
-        <v>12</v>
-      </c>
-      <c r="Z26" s="79">
-        <v>1E-3</v>
-      </c>
-      <c r="AA26"/>
-      <c r="AB26" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC26" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="AD26" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE26" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF26" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG26" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH26" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI26" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Q26" s="78"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79">
+        <v>2</v>
+      </c>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26"/>
+      <c r="AC26" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD26" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="106"/>
+      <c r="AJ26" s="106"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B27" s="105"/>
       <c r="C27" t="s">
         <v>40</v>
@@ -11684,144 +11955,185 @@
       <c r="E27" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="79" t="s">
-        <v>40</v>
-      </c>
+      <c r="F27" s="79"/>
       <c r="G27" s="79"/>
       <c r="H27" s="75" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="I27" s="75"/>
-      <c r="J27" s="83">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="K27" s="78">
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="L27" s="78">
-        <v>0.47619047619047616</v>
+      <c r="J27" s="82">
+        <v>5.4</v>
+      </c>
+      <c r="K27" s="100">
+        <v>4.8</v>
+      </c>
+      <c r="L27" s="100">
+        <v>4</v>
       </c>
       <c r="M27" s="101"/>
       <c r="N27" s="82"/>
       <c r="O27" s="82">
         <v>2</v>
       </c>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="80"/>
-      <c r="U27" s="69"/>
+      <c r="P27" s="78">
+        <v>0.95</v>
+      </c>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
       <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="100"/>
       <c r="Y27" s="79"/>
       <c r="Z27" s="79"/>
-      <c r="AA27"/>
-      <c r="AB27" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA27" s="79"/>
+      <c r="AB27"/>
       <c r="AC27" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD27" s="108"/>
-      <c r="AE27" s="106"/>
+      <c r="AD27" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE27" s="108"/>
       <c r="AF27" s="106"/>
       <c r="AG27" s="106"/>
       <c r="AH27" s="106"/>
       <c r="AI27" s="106"/>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B28" s="105"/>
-      <c r="C28" s="14"/>
+      <c r="AJ27" s="106"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" s="105" t="str">
+        <f>AD28</f>
+        <v>TRARAGGELC1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>182</v>
+      </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>40</v>
+      <c r="E28" t="s">
+        <v>167</v>
       </c>
       <c r="F28" s="79" t="s">
         <v>114</v>
       </c>
       <c r="G28" s="79"/>
       <c r="H28" s="75" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="I28" s="75"/>
-      <c r="J28" s="82">
-        <v>5.4</v>
-      </c>
-      <c r="K28" s="100">
-        <v>4.8</v>
-      </c>
-      <c r="L28" s="100">
-        <v>4</v>
-      </c>
+      <c r="J28" s="82"/>
+      <c r="K28" s="79">
+        <v>1</v>
+      </c>
+      <c r="L28" s="100"/>
       <c r="M28" s="101"/>
       <c r="N28" s="82"/>
       <c r="O28" s="82"/>
       <c r="P28" s="78"/>
-      <c r="Q28" s="80"/>
-      <c r="T28" s="69">
-        <f>T26*8</f>
-        <v>630.72</v>
-      </c>
-      <c r="U28" s="69"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="79">
+        <v>1</v>
+      </c>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
       <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="100"/>
       <c r="Y28" s="79"/>
       <c r="Z28" s="79"/>
-      <c r="AA28"/>
-      <c r="AB28" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC28" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="106"/>
-    </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AA28" s="79"/>
+      <c r="AB28"/>
+      <c r="AC28" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD28" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE28" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF28" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH28" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI28" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ28" s="59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B29" s="105"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="14" t="s">
+        <v>185</v>
+      </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="75"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>188</v>
+      </c>
       <c r="I29" s="75"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
+      <c r="J29" s="82">
+        <v>0.85</v>
+      </c>
+      <c r="K29" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="L29" s="78">
+        <v>0.75</v>
+      </c>
       <c r="M29" s="101"/>
       <c r="N29" s="82"/>
       <c r="O29" s="82"/>
-      <c r="P29" s="78">
-        <v>1.3</v>
-      </c>
-      <c r="Q29" s="80"/>
-      <c r="S29" s="69">
-        <v>15</v>
-      </c>
-      <c r="U29" s="69"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
       <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="100"/>
       <c r="Y29" s="79"/>
       <c r="Z29" s="79"/>
-      <c r="AA29"/>
-      <c r="AB29" s="108" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA29" s="79"/>
+      <c r="AB29"/>
       <c r="AC29" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="106"/>
+      <c r="AD29" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE29" s="108"/>
       <c r="AF29" s="106"/>
       <c r="AG29" s="106"/>
       <c r="AH29" s="106"/>
       <c r="AI29" s="106"/>
-    </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B30" s="105"/>
-      <c r="C30" s="14"/>
+      <c r="AJ29" s="106"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B30" s="105" t="str">
+        <f>AD30</f>
+        <v>TCANELC3</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>167</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
         <v>64</v>
@@ -11830,971 +12142,1413 @@
         <v>151</v>
       </c>
       <c r="G30" s="79"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="131">
-        <v>0</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="101"/>
+      <c r="H30" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="75"/>
+      <c r="J30" s="82">
+        <v>1.8</v>
+      </c>
+      <c r="K30" s="79">
+        <v>1.9</v>
+      </c>
+      <c r="L30" s="100">
+        <v>2.1</v>
+      </c>
+      <c r="M30" s="101">
+        <v>2020</v>
+      </c>
       <c r="N30" s="82"/>
       <c r="O30" s="82"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="80"/>
-      <c r="S30" s="69">
-        <v>-1</v>
-      </c>
-      <c r="T30" s="69">
-        <v>-1</v>
-      </c>
-      <c r="U30" s="69"/>
-      <c r="V30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30"/>
-      <c r="AB30" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC30" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="106"/>
-      <c r="AF30" s="106"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="106"/>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B31" s="105"/>
+      <c r="P30" s="78">
+        <v>1.3</v>
+      </c>
+      <c r="Q30" s="80">
+        <v>15</v>
+      </c>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="79">
+        <v>25</v>
+      </c>
+      <c r="V30" s="79">
+        <v>0.15</v>
+      </c>
+      <c r="W30" s="79"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="79">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="79">
+        <v>1E-3</v>
+      </c>
+      <c r="AA30" s="79"/>
+      <c r="AB30"/>
+      <c r="AC30" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD30" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE30" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF30" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG30" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH30" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI30" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ30" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B31" s="105" t="str">
+        <f>AD31</f>
+        <v>TCANELC4</v>
+      </c>
       <c r="C31" s="14" t="s">
-        <v>276</v>
+        <v>167</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F31" s="79" t="s">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="G31" s="79"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="82">
-        <v>1</v>
-      </c>
+      <c r="H31" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="75"/>
+      <c r="J31" s="82">
+        <v>1.25</v>
+      </c>
+      <c r="K31" s="79">
+        <v>1.4</v>
+      </c>
+      <c r="L31" s="78">
+        <v>1.55</v>
+      </c>
+      <c r="M31" s="101">
+        <v>2020</v>
+      </c>
+      <c r="N31" s="82"/>
       <c r="O31" s="82"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="80"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31"/>
-      <c r="AB31" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC31" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="106"/>
-      <c r="AF31" s="106"/>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="106"/>
-      <c r="AI31" s="106"/>
-    </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B32" s="105" t="str">
-        <f>AC32</f>
-        <v>TCANHYD1</v>
-      </c>
+      <c r="P31" s="78">
+        <v>1.3</v>
+      </c>
+      <c r="Q31" s="80">
+        <v>15</v>
+      </c>
+      <c r="U31" s="69">
+        <v>23</v>
+      </c>
+      <c r="V31" s="79">
+        <v>0.15</v>
+      </c>
+      <c r="Y31" s="79">
+        <v>12</v>
+      </c>
+      <c r="Z31" s="79">
+        <v>1E-3</v>
+      </c>
+      <c r="AA31" s="79"/>
+      <c r="AB31"/>
+      <c r="AC31" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD31" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE31" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF31" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG31" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH31" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI31" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ31" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B32" s="105"/>
       <c r="C32" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+        <v>189</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="79"/>
       <c r="H32" s="75" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="I32" s="75"/>
-      <c r="J32" s="16">
-        <v>1.1499999999999999</v>
+      <c r="J32" s="82">
+        <v>0.4</v>
       </c>
       <c r="K32" s="79">
-        <v>1.3</v>
-      </c>
-      <c r="L32" s="78">
-        <v>1.45</v>
-      </c>
-      <c r="M32" s="101">
-        <v>2020</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="L32" s="100">
+        <v>0.3</v>
+      </c>
+      <c r="M32" s="101"/>
       <c r="N32" s="82"/>
       <c r="O32" s="82"/>
-      <c r="P32" s="78">
+      <c r="P32" s="78"/>
+      <c r="Q32" s="80"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32"/>
+      <c r="AC32" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD32" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="106"/>
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106"/>
+      <c r="AI32" s="106"/>
+      <c r="AJ32" s="106"/>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B33" s="105" t="str">
+        <f>AD33</f>
+        <v>TCANELC9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="79"/>
+      <c r="H33" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="75"/>
+      <c r="J33" s="82">
+        <v>1.8</v>
+      </c>
+      <c r="K33" s="79">
+        <v>1.9</v>
+      </c>
+      <c r="L33" s="79">
+        <v>2.1</v>
+      </c>
+      <c r="M33" s="101">
+        <v>2020</v>
+      </c>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="69">
+        <v>1</v>
+      </c>
+      <c r="S33" s="69"/>
+      <c r="T33">
+        <f>3.6*8.76*60/24</f>
+        <v>78.84</v>
+      </c>
+      <c r="U33" s="79">
+        <v>25</v>
+      </c>
+      <c r="V33" s="79">
+        <v>0.15</v>
+      </c>
+      <c r="Y33" s="79">
+        <v>12</v>
+      </c>
+      <c r="Z33" s="79">
+        <v>1E-3</v>
+      </c>
+      <c r="AA33" s="79"/>
+      <c r="AB33"/>
+      <c r="AC33" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD33" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE33" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF33" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG33" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH33" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI33" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ33" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B34" s="105"/>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="79"/>
+      <c r="H34" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="75"/>
+      <c r="J34" s="83">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K34" s="78">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="L34" s="78">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="M34" s="101"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82">
+        <v>2</v>
+      </c>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="80"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34"/>
+      <c r="AC34" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD34" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="106"/>
+      <c r="AG34" s="106"/>
+      <c r="AH34" s="106"/>
+      <c r="AI34" s="106"/>
+      <c r="AJ34" s="106"/>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B35" s="105"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="79"/>
+      <c r="H35" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="75"/>
+      <c r="J35" s="82">
+        <v>5.4</v>
+      </c>
+      <c r="K35" s="100">
+        <v>4.8</v>
+      </c>
+      <c r="L35" s="100">
+        <v>4</v>
+      </c>
+      <c r="M35" s="101"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="80"/>
+      <c r="T35" s="69">
+        <f>T33*8</f>
+        <v>630.72</v>
+      </c>
+      <c r="U35" s="69"/>
+      <c r="V35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35"/>
+      <c r="AC35" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD35" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE35" s="108"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="106"/>
+      <c r="AI35" s="106"/>
+      <c r="AJ35" s="106"/>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B36" s="105"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="78">
         <v>1.3</v>
       </c>
-      <c r="Q32" s="80">
+      <c r="Q36" s="80"/>
+      <c r="S36" s="69">
         <v>15</v>
       </c>
-      <c r="U32" s="69">
+      <c r="U36" s="69"/>
+      <c r="V36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36"/>
+      <c r="AC36" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD36" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="106"/>
+      <c r="AH36" s="106"/>
+      <c r="AI36" s="106"/>
+      <c r="AJ36" s="106"/>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B37" s="105"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="79"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="131">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="80"/>
+      <c r="S37" s="69">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="69">
+        <v>-1</v>
+      </c>
+      <c r="U37" s="69"/>
+      <c r="V37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37"/>
+      <c r="AC37" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD37" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="106"/>
+      <c r="AG37" s="106"/>
+      <c r="AH37" s="106"/>
+      <c r="AI37" s="106"/>
+      <c r="AJ37" s="106"/>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B38" s="105"/>
+      <c r="C38" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="79"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="82">
+        <v>1</v>
+      </c>
+      <c r="O38" s="82"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="80"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38"/>
+      <c r="AC38" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD38" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="106"/>
+      <c r="AG38" s="106"/>
+      <c r="AH38" s="106"/>
+      <c r="AI38" s="106"/>
+      <c r="AJ38" s="106"/>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B39" s="105" t="str">
+        <f>AD39</f>
+        <v>TCANHYD1</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="75"/>
+      <c r="J39" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K39" s="79">
+        <v>1.3</v>
+      </c>
+      <c r="L39" s="78">
+        <v>1.45</v>
+      </c>
+      <c r="M39" s="101">
+        <v>2020</v>
+      </c>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="78">
+        <v>1.3</v>
+      </c>
+      <c r="Q39" s="80">
+        <v>15</v>
+      </c>
+      <c r="U39" s="69">
         <v>23</v>
       </c>
-      <c r="V32" s="79">
+      <c r="V39" s="79">
         <v>0.15</v>
       </c>
-      <c r="Y32" s="79">
+      <c r="Y39" s="79">
         <v>12</v>
       </c>
-      <c r="Z32" s="79">
+      <c r="Z39" s="79">
         <v>1E-3</v>
       </c>
-      <c r="AA32"/>
-      <c r="AB32" s="60" t="s">
+      <c r="AA39" s="79"/>
+      <c r="AB39"/>
+      <c r="AC39" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AC32" s="54" t="s">
+      <c r="AD39" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE39" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="AD32" s="54" t="s">
+      <c r="AF39" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG39" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH39" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI39" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ39" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="61"/>
+      <c r="AG40" s="61"/>
+      <c r="AH40" s="61"/>
+      <c r="AI40" s="61"/>
+      <c r="AJ40" s="59"/>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="54"/>
+      <c r="AE41" s="54"/>
+      <c r="AF41" s="61"/>
+      <c r="AG41" s="61"/>
+      <c r="AH41" s="61"/>
+      <c r="AI41" s="61"/>
+      <c r="AJ41" s="59"/>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B42" s="39"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="67"/>
+      <c r="AG42" s="67"/>
+      <c r="AH42" s="67"/>
+      <c r="AI42" s="67"/>
+      <c r="AJ42" s="65"/>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="54"/>
+      <c r="AE43" s="54"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="59"/>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B45" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="J45" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AC46" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="54"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="54"/>
+      <c r="AI46" s="54"/>
+      <c r="AJ46" s="54"/>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="C47" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="M47" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="AC47" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD47" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF47" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG47" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH47" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI47" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ47" s="55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B48" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="94">
+        <v>2020</v>
+      </c>
+      <c r="J48" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="M48" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="N48" s="135">
+        <v>2020</v>
+      </c>
+      <c r="O48" s="135">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD48" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="AE32" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF32" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG32" s="61" t="s">
+      <c r="AE48" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF48" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG48" s="127"/>
+      <c r="AH48" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI48" s="127"/>
+      <c r="AJ48" s="127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B49" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="J49" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="K49" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="L49" s="127" t="s">
         <v>142</v>
-      </c>
-      <c r="AH32" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI32" s="59" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="61"/>
-      <c r="AG33" s="61"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="59"/>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
-      <c r="AE34" s="61"/>
-      <c r="AF34" s="61"/>
-      <c r="AG34" s="61"/>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="59"/>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B35" s="39"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="67"/>
-      <c r="AH35" s="67"/>
-      <c r="AI35" s="65"/>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="61"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="59"/>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B38" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="J38" s="112" t="s">
-        <v>274</v>
-      </c>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="112"/>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="AB39" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="54"/>
-      <c r="AH39" s="54"/>
-      <c r="AI39" s="54"/>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C40" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="M40" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB40" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC40" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD40" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE40" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF40" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG40" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH40" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI40" s="55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B41" s="89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="94">
-        <v>2020</v>
-      </c>
-      <c r="J41" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="K41" s="134" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="134" t="s">
-        <v>139</v>
-      </c>
-      <c r="M41" s="135" t="s">
-        <v>257</v>
-      </c>
-      <c r="N41" s="135">
-        <v>2020</v>
-      </c>
-      <c r="O41" s="135">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC41" s="127" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD41" s="127" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE41" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF41" s="127"/>
-      <c r="AG41" s="127" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH41" s="127"/>
-      <c r="AI41" s="127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B42" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="J42" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="K42" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L42" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="M42" s="122" t="s">
-        <v>259</v>
-      </c>
-      <c r="N42" s="122">
-        <v>0.4</v>
-      </c>
-      <c r="O42" s="122">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC42" s="127" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD42" s="127" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE42" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF42" s="127"/>
-      <c r="AG42" s="127"/>
-      <c r="AH42" s="127"/>
-      <c r="AI42" s="127"/>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B43" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="99">
-        <v>6.5924657534246575E-2</v>
-      </c>
-      <c r="J43" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="K43" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L43" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="M43" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="N43" s="122">
-        <v>4</v>
-      </c>
-      <c r="O43" s="122">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC43" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD43" s="127" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE43" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF43" s="127"/>
-      <c r="AG43" s="127"/>
-      <c r="AH43" s="127"/>
-      <c r="AI43" s="127"/>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B44" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="99">
-        <v>0.13356164383561642</v>
-      </c>
-      <c r="J44" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="K44" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L44" s="136" t="s">
-        <v>121</v>
-      </c>
-      <c r="M44" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="N44" s="122">
-        <v>0.8</v>
-      </c>
-      <c r="O44" s="122">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC44" s="127" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD44" s="127" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE44" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF44" s="127"/>
-      <c r="AG44" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH44" s="127"/>
-      <c r="AI44" s="127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B45" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="99">
-        <v>5.9931506849315065E-3</v>
-      </c>
-      <c r="J45" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="K45" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L45" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="M45" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="N45" s="122">
-        <v>0.7</v>
-      </c>
-      <c r="O45" s="122">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC45" s="127" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD45" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE45" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF45" s="127"/>
-      <c r="AG45" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH45" s="127"/>
-      <c r="AI45" s="127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B46" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="99">
-        <v>9.6849315068493147E-2</v>
-      </c>
-      <c r="J46" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="K46" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L46" s="136" t="s">
-        <v>124</v>
-      </c>
-      <c r="M46" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="N46" s="122">
-        <v>0.8</v>
-      </c>
-      <c r="O46" s="122">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="127" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC46" s="127" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD46" s="127" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE46" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF46" s="127"/>
-      <c r="AG46" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH46" s="127"/>
-      <c r="AI46" s="127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B47" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="99">
-        <v>0.17179223744292235</v>
-      </c>
-      <c r="J47" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="K47" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L47" s="136" t="s">
-        <v>132</v>
-      </c>
-      <c r="M47" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="N47" s="122">
-        <v>0.7</v>
-      </c>
-      <c r="O47" s="122">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC47" s="127" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD47" s="127" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE47" s="127" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF47" s="122"/>
-      <c r="AG47" s="127"/>
-      <c r="AH47" s="127"/>
-      <c r="AI47" s="127"/>
-    </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B48" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="99">
-        <v>8.0707762557077605E-3</v>
-      </c>
-      <c r="J48" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="K48" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L48" s="136" t="s">
-        <v>133</v>
-      </c>
-      <c r="M48" s="122" t="s">
-        <v>258</v>
-      </c>
-      <c r="N48" s="122">
-        <v>0.8</v>
-      </c>
-      <c r="O48" s="122">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="127" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC48" s="127" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD48" s="127" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE48" s="127" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF48" s="122" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG48" s="127"/>
-      <c r="AH48" s="127"/>
-      <c r="AI48" s="127"/>
-    </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B49" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C49" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="99">
-        <v>6.9440639269406385E-2</v>
-      </c>
-      <c r="J49" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="K49" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L49" s="136" t="s">
-        <v>135</v>
       </c>
       <c r="M49" s="122" t="s">
         <v>258</v>
       </c>
       <c r="N49" s="122">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="O49" s="122">
         <v>5</v>
       </c>
-      <c r="AB49" s="127" t="s">
-        <v>219</v>
-      </c>
       <c r="AC49" s="127" t="s">
-        <v>276</v>
+        <v>114</v>
       </c>
       <c r="AD49" s="127" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="AE49" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF49" s="127" t="s">
         <v>41</v>
-      </c>
-      <c r="AF49" s="122" t="s">
-        <v>43</v>
       </c>
       <c r="AG49" s="127"/>
       <c r="AH49" s="127"/>
       <c r="AI49" s="127"/>
-    </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="127"/>
+    </row>
+    <row r="50" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B50" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50" s="91" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D50" s="99">
-        <v>0.14068493150684933</v>
+        <v>6.5924657534246575E-2</v>
       </c>
       <c r="J50" s="121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K50" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="L50" s="136" t="s">
-        <v>136</v>
+        <v>275</v>
+      </c>
+      <c r="L50" s="127" t="s">
+        <v>142</v>
       </c>
       <c r="M50" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N50" s="122">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="O50" s="122">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AC50" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD50" s="127" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE50" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF50" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG50" s="127"/>
+      <c r="AH50" s="127"/>
+      <c r="AI50" s="127"/>
+      <c r="AJ50" s="127"/>
+    </row>
+    <row r="51" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B51" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" s="91" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D51" s="99">
-        <v>6.3127853881278532E-3</v>
+        <v>0.13356164383561642</v>
       </c>
       <c r="J51" s="121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K51" s="127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L51" s="136" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="M51" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N51" s="122">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O51" s="122">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AC51" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD51" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE51" s="127" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF51" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG51" s="127"/>
+      <c r="AH51" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI51" s="127"/>
+      <c r="AJ51" s="127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B52" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="99">
+        <v>5.9931506849315065E-3</v>
+      </c>
+      <c r="J52" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="K52" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="L52" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="M52" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N52" s="122">
+        <v>0.7</v>
+      </c>
+      <c r="O52" s="122">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD52" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE52" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="91" t="s">
+      <c r="AF52" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG52" s="127"/>
+      <c r="AH52" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI52" s="127"/>
+      <c r="AJ52" s="127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B53" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="99">
+        <v>9.6849315068493147E-2</v>
+      </c>
+      <c r="J53" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="K53" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="L53" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="M53" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N53" s="122">
+        <v>0.8</v>
+      </c>
+      <c r="O53" s="122">
+        <v>5</v>
+      </c>
+      <c r="AC53" s="127" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD53" s="127" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE53" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF53" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG53" s="127"/>
+      <c r="AH53" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI53" s="127"/>
+      <c r="AJ53" s="127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B54" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="99">
+        <v>0.17179223744292235</v>
+      </c>
+      <c r="J54" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="K54" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="L54" s="136" t="s">
+        <v>132</v>
+      </c>
+      <c r="M54" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N54" s="122">
+        <v>0.7</v>
+      </c>
+      <c r="O54" s="122">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="127" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD54" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE54" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF54" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG54" s="122"/>
+      <c r="AH54" s="127"/>
+      <c r="AI54" s="127"/>
+      <c r="AJ54" s="127"/>
+    </row>
+    <row r="55" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B55" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="99">
+        <v>8.0707762557077605E-3</v>
+      </c>
+      <c r="J55" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="K55" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="L55" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="M55" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N55" s="122">
+        <v>0.8</v>
+      </c>
+      <c r="O55" s="122">
+        <v>5</v>
+      </c>
+      <c r="AC55" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD55" s="127" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE55" s="127" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF55" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG55" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH55" s="127"/>
+      <c r="AI55" s="127"/>
+      <c r="AJ55" s="127"/>
+    </row>
+    <row r="56" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B56" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="99">
+        <v>6.9440639269406385E-2</v>
+      </c>
+      <c r="J56" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="K56" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="L56" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="M56" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N56" s="122">
+        <v>0.7</v>
+      </c>
+      <c r="O56" s="122">
+        <v>5</v>
+      </c>
+      <c r="AC56" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD56" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE56" s="127" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF56" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG56" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH56" s="127"/>
+      <c r="AI56" s="127"/>
+      <c r="AJ56" s="127"/>
+    </row>
+    <row r="57" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B57" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="99">
+        <v>0.14068493150684933</v>
+      </c>
+      <c r="J57" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="K57" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="L57" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="D52" s="99">
+      <c r="M57" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N57" s="122">
+        <v>0.8</v>
+      </c>
+      <c r="O57" s="122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B58" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="99">
+        <v>6.3127853881278532E-3</v>
+      </c>
+      <c r="J58" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="K58" s="127" t="s">
+        <v>275</v>
+      </c>
+      <c r="L58" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="M58" s="122" t="s">
+        <v>257</v>
+      </c>
+      <c r="N58" s="122">
+        <v>0.7</v>
+      </c>
+      <c r="O58" s="122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B59" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="99">
         <v>9.6689497716894973E-2</v>
       </c>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-    </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B53" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" s="91" t="s">
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+    </row>
+    <row r="60" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B60" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="99">
+      <c r="D60" s="99">
         <v>0.19589041095890411</v>
       </c>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-    </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B54" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="93" t="s">
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+    </row>
+    <row r="61" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B61" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="113">
+      <c r="D61" s="113">
         <v>8.7899543378995425E-3</v>
       </c>
-      <c r="J54" s="105"/>
-      <c r="L54" s="132"/>
-      <c r="M54" s="69"/>
-      <c r="Q54" s="33"/>
-    </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B55" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="91" t="s">
+      <c r="J61" s="105"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="69"/>
+      <c r="Q61" s="33"/>
+    </row>
+    <row r="62" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B62" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="99">
+      <c r="D62" s="99">
         <v>0.1365582191780822</v>
       </c>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B56" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="91" t="s">
+    <row r="63" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B63" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="99">
+      <c r="D63" s="99">
         <v>5.779109589041094E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B57" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="91" t="s">
+    <row r="64" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B64" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="99">
+      <c r="D64" s="99">
         <v>1.1130136986301371E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B58" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="99">
-        <v>0.20061643835616438</v>
-      </c>
-    </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B59" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="99">
-        <v>6.1107305936073032E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B60" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="99">
-        <v>1.4988584474885843E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B61" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="99">
-        <v>0.14384132420091322</v>
-      </c>
-    </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B62" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="99">
-        <v>6.0873287671232894E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B63" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="99">
-        <v>1.1723744292237442E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B64" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="99">
-        <v>0.20028538812785388</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D65" s="99">
-        <v>8.4760273972602732E-2</v>
+        <v>0.20061643835616438</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C66" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="99">
+        <v>6.1107305936073032E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="99">
+        <v>1.4988584474885843E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="99">
+        <v>0.14384132420091322</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="99">
+        <v>6.0873287671232894E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="99">
+        <v>1.1723744292237442E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="99">
+        <v>0.20028538812785388</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="99">
+        <v>8.4760273972602732E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="99">
+      <c r="D73" s="99">
         <v>1.632420091324201E-2</v>
       </c>
     </row>
